--- a/script_procesar_excel/programas/16 DE MARZO DE 2025.xlsx
+++ b/script_procesar_excel/programas/16 DE MARZO DE 2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan_\Downloads\programa gemini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Diaz\Downloads\proyecto-web-hipodromo\proyecto-web-hipodromo\script_procesar_excel\programas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{972061DB-7D24-4CF8-9201-159085DEAD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2574311-25C5-4D05-9912-274B93EDB07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="450" xr2:uid="{FF11F325-E6ED-4DA8-8FA3-AFEF2FF27DC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="450" xr2:uid="{FF11F325-E6ED-4DA8-8FA3-AFEF2FF27DC9}"/>
   </bookViews>
   <sheets>
     <sheet name="16-03-25" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'16-03-25'!$A$1:$J$226</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -761,9 +750,6 @@
     <t>16/02/25 - C. Schultheis - 6º a 23 cp de Indio Electric - 1'20"1/5 - PN</t>
   </si>
   <si>
-    <t>REUNION Nº 3 - 9 DE MARZO DE 2025</t>
-  </si>
-  <si>
     <t>Para todo spc de 4 años y más edad perdedor; de 5 años y más edad ganadores de 1 carrera y de 6 años y más edad ganadores de 2 o 3 carreras,</t>
   </si>
   <si>
@@ -1707,6 +1693,9 @@
   </si>
   <si>
     <t>yeguas ganadoras de 3 carreras y de 6 años y más edad ganadores de 3 carreras. Peso 53: 56 y 59 kilos.</t>
+  </si>
+  <si>
+    <t>REUNION Nº 3 - 16 DE MARZO DE 2025</t>
   </si>
 </sst>
 </file>
@@ -2821,10 +2810,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2842,14 +2830,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2921,10 +2907,10 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2936,7 +2922,7 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2978,7 +2964,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3005,19 +2991,16 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3029,17 +3012,14 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3187,7 +3167,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3217,113 +3197,100 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6295,4613 +6262,4643 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:T225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" customWidth="1"/>
-    <col min="2" max="2" width="2.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" customWidth="1"/>
-    <col min="11" max="16384" width="11.44140625" style="2"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="161" t="s">
+    <row r="1" spans="1:20" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="162"/>
-    </row>
-    <row r="2" spans="1:20" s="5" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="163" t="s">
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="156"/>
+    </row>
+    <row r="2" spans="1:20" s="4" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="157" t="s">
+        <v>529</v>
+      </c>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="158"/>
+    </row>
+    <row r="3" spans="1:20" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="159" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="144"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:20" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="160" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="163"/>
+      <c r="L4" s="7"/>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="1:20" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="152" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="153"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="160" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="162"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="76"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:20" s="4" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="150" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="151"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="145" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="146"/>
+      <c r="L6" s="8"/>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:20" s="4" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:20" s="4" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:20" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:20" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:20" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:20" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:20" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:20" s="4" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="10"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:20" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="148" t="s">
+        <v>518</v>
+      </c>
+      <c r="B15" s="148"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="148"/>
+      <c r="I15" s="148"/>
+      <c r="J15" s="148"/>
+    </row>
+    <row r="16" spans="1:20" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="147" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="147"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="147"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="73"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="73"/>
+      <c r="S16" s="73"/>
+      <c r="T16" s="73"/>
+    </row>
+    <row r="17" spans="1:12" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="164"/>
-    </row>
-    <row r="3" spans="1:20" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="165" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="1:12" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="167" t="s">
+        <v>216</v>
+      </c>
+      <c r="B18" s="167"/>
+      <c r="C18" s="167"/>
+      <c r="D18" s="167"/>
+      <c r="E18" s="167"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="167"/>
+      <c r="H18" s="167"/>
+      <c r="I18" s="167"/>
+      <c r="J18" s="167"/>
+    </row>
+    <row r="19" spans="1:12" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="154" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="154"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+    </row>
+    <row r="20" spans="1:12" s="16" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="154" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="154"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+    </row>
+    <row r="21" spans="1:12" s="16" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="132" t="s">
+        <v>210</v>
+      </c>
+      <c r="B21" s="133" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21" s="134" t="s">
+        <v>204</v>
+      </c>
+      <c r="D21" s="133" t="s">
+        <v>205</v>
+      </c>
+      <c r="E21" s="134" t="s">
+        <v>213</v>
+      </c>
+      <c r="F21" s="133" t="s">
+        <v>209</v>
+      </c>
+      <c r="G21" s="164" t="s">
+        <v>206</v>
+      </c>
+      <c r="H21" s="165"/>
+      <c r="I21" s="133" t="s">
+        <v>207</v>
+      </c>
+      <c r="J21" s="135" t="s">
+        <v>208</v>
+      </c>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+    </row>
+    <row r="22" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="95" t="s">
+        <v>218</v>
+      </c>
+      <c r="B22" s="107">
+        <v>1</v>
+      </c>
+      <c r="C22" s="108" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="F22" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="110" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="110"/>
+      <c r="I22" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="38"/>
+    </row>
+    <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="96" t="s">
+        <v>224</v>
+      </c>
+      <c r="B23" s="97">
         <v>2</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="172"/>
-      <c r="N3" s="8"/>
-    </row>
-    <row r="4" spans="1:20" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
+      <c r="C23" s="98" t="s">
+        <v>220</v>
+      </c>
+      <c r="D23" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="100" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="H23" s="38"/>
+      <c r="I23" s="99" t="s">
+        <v>222</v>
+      </c>
+      <c r="J23" s="99" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="B24" s="36">
+        <v>3</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="87" t="s">
+        <v>212</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="H24" s="67"/>
+      <c r="I24" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="J24" s="32" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="B25" s="36">
+        <v>4</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="G25" s="67" t="s">
+        <v>234</v>
+      </c>
+      <c r="H25" s="67"/>
+      <c r="I25" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="J25" s="32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="B26" s="36">
+        <v>5</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="67" t="s">
+        <v>356</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="G26" s="67" t="s">
+        <v>241</v>
+      </c>
+      <c r="H26" s="67"/>
+      <c r="I26" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="J26" s="32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="B27" s="36">
         <v>6</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="168" t="s">
+      <c r="C27" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="67" t="s">
+        <v>526</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="67" t="s">
+        <v>247</v>
+      </c>
+      <c r="H27" s="67"/>
+      <c r="I27" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="J27" s="32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="B28" s="36">
+        <v>7</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="67"/>
+      <c r="F28" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="G28" s="67" t="s">
+        <v>254</v>
+      </c>
+      <c r="H28" s="67"/>
+      <c r="I28" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="J28" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="101">
         <v>1</v>
       </c>
-      <c r="G4" s="168"/>
-      <c r="H4" s="168"/>
-      <c r="I4" s="168" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="171"/>
-      <c r="L4" s="8"/>
-      <c r="N4" s="9"/>
-    </row>
-    <row r="5" spans="1:20" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="176" t="s">
+      <c r="B29" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="103" t="s">
+        <v>219</v>
+      </c>
+      <c r="H29" s="105"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="106"/>
+    </row>
+    <row r="30" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="24">
+        <v>2</v>
+      </c>
+      <c r="B30" s="59" t="s">
+        <v>225</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="59" t="s">
+        <v>226</v>
+      </c>
+      <c r="H30" s="22"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="41"/>
+    </row>
+    <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="24">
+        <v>3</v>
+      </c>
+      <c r="B31" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="61" t="s">
+        <v>231</v>
+      </c>
+      <c r="H31" s="63"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="65"/>
+    </row>
+    <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="24">
+        <v>4</v>
+      </c>
+      <c r="B32" s="48" t="s">
+        <v>238</v>
+      </c>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="49" t="s">
+        <v>239</v>
+      </c>
+      <c r="H32" s="70"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="72"/>
+    </row>
+    <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="24">
+        <v>5</v>
+      </c>
+      <c r="B33" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="H33" s="70"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="72"/>
+    </row>
+    <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="24">
+        <v>6</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="43" t="s">
+        <v>251</v>
+      </c>
+      <c r="H34" s="38"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="40"/>
+    </row>
+    <row r="35" spans="1:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="26">
+        <v>7</v>
+      </c>
+      <c r="B35" s="77" t="s">
+        <v>256</v>
+      </c>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="77" t="s">
+        <v>257</v>
+      </c>
+      <c r="H35" s="79"/>
+      <c r="I35" s="80"/>
+      <c r="J35" s="81"/>
+    </row>
+    <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="69"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="69"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="69"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="69"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="69"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="69"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="69"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="69"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="69"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="69"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="69"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="69"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+    </row>
+    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="69"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A49" s="69"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A50" s="69"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A51" s="69"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A52" s="69"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A53" s="69"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A54" s="69"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
+    </row>
+    <row r="55" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="69"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="68"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
+    </row>
+    <row r="56" spans="1:20" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:20" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="148" t="s">
+        <v>519</v>
+      </c>
+      <c r="B57" s="148"/>
+      <c r="C57" s="148"/>
+      <c r="D57" s="148"/>
+      <c r="E57" s="148"/>
+      <c r="F57" s="148"/>
+      <c r="G57" s="148"/>
+      <c r="H57" s="148"/>
+      <c r="I57" s="148"/>
+      <c r="J57" s="148"/>
+    </row>
+    <row r="58" spans="1:20" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="147" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="147"/>
+      <c r="C58" s="147"/>
+      <c r="D58" s="147"/>
+      <c r="E58" s="147"/>
+      <c r="F58" s="147"/>
+      <c r="G58" s="147"/>
+      <c r="H58" s="147"/>
+      <c r="I58" s="147"/>
+      <c r="J58" s="147"/>
+      <c r="K58" s="73"/>
+      <c r="L58" s="73"/>
+      <c r="M58" s="73"/>
+      <c r="N58" s="73"/>
+      <c r="O58" s="73"/>
+      <c r="P58" s="73"/>
+      <c r="Q58" s="73"/>
+      <c r="R58" s="73"/>
+      <c r="S58" s="73"/>
+      <c r="T58" s="73"/>
+    </row>
+    <row r="59" spans="1:20" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="50" t="s">
+        <v>258</v>
+      </c>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+    </row>
+    <row r="60" spans="1:20" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="167" t="s">
+        <v>259</v>
+      </c>
+      <c r="B60" s="167"/>
+      <c r="C60" s="167"/>
+      <c r="D60" s="167"/>
+      <c r="E60" s="167"/>
+      <c r="F60" s="167"/>
+      <c r="G60" s="167"/>
+      <c r="H60" s="167"/>
+      <c r="I60" s="167"/>
+      <c r="J60" s="167"/>
+    </row>
+    <row r="61" spans="1:20" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="154" t="s">
+        <v>23</v>
+      </c>
+      <c r="J61" s="154"/>
+      <c r="K61" s="74"/>
+      <c r="L61" s="74"/>
+    </row>
+    <row r="62" spans="1:20" s="16" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="149" t="s">
+        <v>48</v>
+      </c>
+      <c r="J62" s="149"/>
+      <c r="K62" s="74"/>
+      <c r="L62" s="74"/>
+    </row>
+    <row r="63" spans="1:20" s="16" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="132" t="s">
+        <v>210</v>
+      </c>
+      <c r="B63" s="133" t="s">
+        <v>203</v>
+      </c>
+      <c r="C63" s="134" t="s">
+        <v>204</v>
+      </c>
+      <c r="D63" s="133" t="s">
+        <v>205</v>
+      </c>
+      <c r="E63" s="134" t="s">
+        <v>213</v>
+      </c>
+      <c r="F63" s="133" t="s">
+        <v>209</v>
+      </c>
+      <c r="G63" s="164" t="s">
+        <v>206</v>
+      </c>
+      <c r="H63" s="165"/>
+      <c r="I63" s="133" t="s">
+        <v>207</v>
+      </c>
+      <c r="J63" s="135" t="s">
+        <v>208</v>
+      </c>
+      <c r="K63" s="74"/>
+      <c r="L63" s="74"/>
+    </row>
+    <row r="64" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="B64" s="34">
+        <v>1</v>
+      </c>
+      <c r="C64" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="D64" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="47" t="s">
+        <v>261</v>
+      </c>
+      <c r="F64" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="G64" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="H64" s="30"/>
+      <c r="I64" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="J64" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="K64" s="38"/>
+    </row>
+    <row r="65" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="B65" s="36">
+        <v>2</v>
+      </c>
+      <c r="C65" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="D65" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="87"/>
+      <c r="F65" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="G65" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="H65" s="67"/>
+      <c r="I65" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="J65" s="32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66" s="36">
+        <v>3</v>
+      </c>
+      <c r="C66" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="D66" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G66" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="H66" s="67"/>
+      <c r="I66" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="J66" s="32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="B67" s="36">
+        <v>4</v>
+      </c>
+      <c r="C67" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="D67" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="67"/>
+      <c r="F67" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="G67" s="67" t="s">
+        <v>272</v>
+      </c>
+      <c r="H67" s="67"/>
+      <c r="I67" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="J67" s="32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="B68" s="36">
+        <v>5</v>
+      </c>
+      <c r="C68" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D68" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="F68" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="G68" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="H68" s="67"/>
+      <c r="I68" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="J68" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" s="36">
+        <v>6</v>
+      </c>
+      <c r="C69" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="D69" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="67"/>
+      <c r="F69" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="G69" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="H69" s="67"/>
+      <c r="I69" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="J69" s="32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="B70" s="36">
+        <v>7</v>
+      </c>
+      <c r="C70" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="D70" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="67" t="s">
+        <v>526</v>
+      </c>
+      <c r="F70" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="G70" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="H70" s="67"/>
+      <c r="I70" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="J70" s="32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="52">
+        <v>1</v>
+      </c>
+      <c r="B71" s="53" t="s">
+        <v>266</v>
+      </c>
+      <c r="C71" s="53"/>
+      <c r="D71" s="53"/>
+      <c r="E71" s="53"/>
+      <c r="F71" s="54"/>
+      <c r="G71" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="H71" s="55"/>
+      <c r="I71" s="55"/>
+      <c r="J71" s="56"/>
+    </row>
+    <row r="72" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="24">
+        <v>2</v>
+      </c>
+      <c r="B72" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="C72" s="42"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="44"/>
+      <c r="G72" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="H72" s="67"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="21"/>
+    </row>
+    <row r="73" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="24">
+        <v>3</v>
+      </c>
+      <c r="B73" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="59" t="s">
+        <v>270</v>
+      </c>
+      <c r="H73" s="22"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="41"/>
+    </row>
+    <row r="74" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="24">
+        <v>4</v>
+      </c>
+      <c r="B74" s="60" t="s">
+        <v>274</v>
+      </c>
+      <c r="C74" s="61"/>
+      <c r="D74" s="61"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="H74" s="63"/>
+      <c r="I74" s="64"/>
+      <c r="J74" s="65"/>
+    </row>
+    <row r="75" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="24">
+        <v>5</v>
+      </c>
+      <c r="B75" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="51"/>
+      <c r="G75" s="49" t="s">
+        <v>277</v>
+      </c>
+      <c r="H75" s="70"/>
+      <c r="I75" s="71"/>
+      <c r="J75" s="72"/>
+    </row>
+    <row r="76" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="137">
+        <v>6</v>
+      </c>
+      <c r="B76" s="138" t="s">
+        <v>108</v>
+      </c>
+      <c r="C76" s="138"/>
+      <c r="D76" s="138"/>
+      <c r="E76" s="138"/>
+      <c r="F76" s="139"/>
+      <c r="G76" s="138" t="s">
+        <v>109</v>
+      </c>
+      <c r="H76" s="140"/>
+      <c r="I76" s="141"/>
+      <c r="J76" s="142"/>
+    </row>
+    <row r="77" spans="1:20" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="136">
+        <v>7</v>
+      </c>
+      <c r="B77" s="111" t="s">
+        <v>282</v>
+      </c>
+      <c r="C77" s="111"/>
+      <c r="D77" s="111"/>
+      <c r="E77" s="111"/>
+      <c r="F77" s="112"/>
+      <c r="G77" s="111" t="s">
+        <v>283</v>
+      </c>
+      <c r="H77" s="113"/>
+      <c r="I77" s="114"/>
+      <c r="J77" s="115"/>
+    </row>
+    <row r="78" spans="1:20" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:20" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="148" t="s">
+        <v>520</v>
+      </c>
+      <c r="B79" s="148"/>
+      <c r="C79" s="148"/>
+      <c r="D79" s="148"/>
+      <c r="E79" s="148"/>
+      <c r="F79" s="148"/>
+      <c r="G79" s="148"/>
+      <c r="H79" s="148"/>
+      <c r="I79" s="148"/>
+      <c r="J79" s="148"/>
+    </row>
+    <row r="80" spans="1:20" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="147" t="s">
+        <v>284</v>
+      </c>
+      <c r="B80" s="147"/>
+      <c r="C80" s="147"/>
+      <c r="D80" s="147"/>
+      <c r="E80" s="147"/>
+      <c r="F80" s="147"/>
+      <c r="G80" s="147"/>
+      <c r="H80" s="147"/>
+      <c r="I80" s="147"/>
+      <c r="J80" s="147"/>
+      <c r="K80" s="73"/>
+      <c r="L80" s="73"/>
+      <c r="M80" s="73"/>
+      <c r="N80" s="73"/>
+      <c r="O80" s="73"/>
+      <c r="P80" s="73"/>
+      <c r="Q80" s="73"/>
+      <c r="R80" s="73"/>
+      <c r="S80" s="73"/>
+      <c r="T80" s="73"/>
+    </row>
+    <row r="81" spans="1:12" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="19"/>
+    </row>
+    <row r="82" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="154" t="s">
+        <v>58</v>
+      </c>
+      <c r="J82" s="154"/>
+      <c r="K82" s="74"/>
+      <c r="L82" s="74"/>
+    </row>
+    <row r="83" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="149" t="s">
+        <v>287</v>
+      </c>
+      <c r="J83" s="149"/>
+      <c r="K83" s="74"/>
+      <c r="L83" s="74"/>
+    </row>
+    <row r="84" spans="1:12" s="16" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="132" t="s">
+        <v>210</v>
+      </c>
+      <c r="B84" s="133" t="s">
+        <v>203</v>
+      </c>
+      <c r="C84" s="134" t="s">
+        <v>204</v>
+      </c>
+      <c r="D84" s="133" t="s">
+        <v>205</v>
+      </c>
+      <c r="E84" s="134" t="s">
+        <v>213</v>
+      </c>
+      <c r="F84" s="133" t="s">
+        <v>209</v>
+      </c>
+      <c r="G84" s="164" t="s">
+        <v>206</v>
+      </c>
+      <c r="H84" s="165"/>
+      <c r="I84" s="133" t="s">
+        <v>207</v>
+      </c>
+      <c r="J84" s="135" t="s">
+        <v>208</v>
+      </c>
+      <c r="K84" s="74"/>
+      <c r="L84" s="74"/>
+    </row>
+    <row r="85" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="B85" s="36">
+        <v>1</v>
+      </c>
+      <c r="C85" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="D85" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="F85" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="67" t="s">
+        <v>289</v>
+      </c>
+      <c r="H85" s="67"/>
+      <c r="I85" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="J85" s="32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="B86" s="36">
+        <v>2</v>
+      </c>
+      <c r="C86" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D86" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="F86" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="H86" s="67"/>
+      <c r="I86" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="J86" s="32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="B87" s="36">
+        <v>3</v>
+      </c>
+      <c r="C87" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D87" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="67"/>
+      <c r="F87" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="H87" s="67"/>
+      <c r="I87" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="J87" s="32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="B88" s="36">
+        <v>4</v>
+      </c>
+      <c r="C88" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="D88" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="F88" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G88" s="67" t="s">
+        <v>301</v>
+      </c>
+      <c r="H88" s="67"/>
+      <c r="I88" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="J88" s="32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="B89" s="36">
+        <v>5</v>
+      </c>
+      <c r="C89" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="D89" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="F89" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="67" t="s">
+        <v>306</v>
+      </c>
+      <c r="H89" s="67"/>
+      <c r="I89" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="J89" s="32" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="B90" s="36">
+        <v>6</v>
+      </c>
+      <c r="C90" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D90" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="F90" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" s="67" t="s">
+        <v>312</v>
+      </c>
+      <c r="H90" s="67"/>
+      <c r="I90" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="J90" s="32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="B91" s="36">
+        <v>7</v>
+      </c>
+      <c r="C91" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="D91" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E91" s="67" t="s">
+        <v>212</v>
+      </c>
+      <c r="F91" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="G91" s="67" t="s">
+        <v>317</v>
+      </c>
+      <c r="H91" s="67"/>
+      <c r="I91" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J91" s="32" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="B92" s="36">
         <v>8</v>
       </c>
-      <c r="B5" s="177"/>
-      <c r="C5" s="177"/>
-      <c r="D5" s="177"/>
-      <c r="E5" s="177"/>
-      <c r="F5" s="168" t="s">
+      <c r="C92" s="37" t="s">
+        <v>322</v>
+      </c>
+      <c r="D92" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E92" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="F92" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="G92" s="67" t="s">
+        <v>323</v>
+      </c>
+      <c r="H92" s="67"/>
+      <c r="I92" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="J92" s="32" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="B93" s="36">
+        <v>9</v>
+      </c>
+      <c r="C93" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D93" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="G93" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="H93" s="67"/>
+      <c r="I93" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="J93" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="52">
+        <v>1</v>
+      </c>
+      <c r="B94" s="102" t="s">
+        <v>293</v>
+      </c>
+      <c r="C94" s="103"/>
+      <c r="D94" s="103"/>
+      <c r="E94" s="103"/>
+      <c r="F94" s="104"/>
+      <c r="G94" s="103" t="s">
+        <v>294</v>
+      </c>
+      <c r="H94" s="110"/>
+      <c r="I94" s="105"/>
+      <c r="J94" s="106"/>
+    </row>
+    <row r="95" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="24">
+        <v>2</v>
+      </c>
+      <c r="B95" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="C95" s="61"/>
+      <c r="D95" s="61"/>
+      <c r="E95" s="61"/>
+      <c r="F95" s="62"/>
+      <c r="G95" s="61" t="s">
+        <v>297</v>
+      </c>
+      <c r="H95" s="63"/>
+      <c r="I95" s="64"/>
+      <c r="J95" s="65"/>
+    </row>
+    <row r="96" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="24">
+        <v>3</v>
+      </c>
+      <c r="B96" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C96" s="61"/>
+      <c r="D96" s="61"/>
+      <c r="E96" s="61"/>
+      <c r="F96" s="62"/>
+      <c r="G96" s="61" t="s">
+        <v>299</v>
+      </c>
+      <c r="H96" s="63"/>
+      <c r="I96" s="64"/>
+      <c r="J96" s="65"/>
+    </row>
+    <row r="97" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="24">
         <v>4</v>
       </c>
-      <c r="G5" s="168"/>
-      <c r="H5" s="168"/>
-      <c r="I5" s="169"/>
-      <c r="J5" s="170"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="81"/>
-      <c r="N5" s="8"/>
-    </row>
-    <row r="6" spans="1:20" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="174" t="s">
+      <c r="B97" s="48" t="s">
+        <v>303</v>
+      </c>
+      <c r="C97" s="49"/>
+      <c r="D97" s="49"/>
+      <c r="E97" s="49"/>
+      <c r="F97" s="51"/>
+      <c r="G97" s="49" t="s">
+        <v>304</v>
+      </c>
+      <c r="H97" s="70"/>
+      <c r="I97" s="71"/>
+      <c r="J97" s="72"/>
+    </row>
+    <row r="98" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="24">
+        <v>5</v>
+      </c>
+      <c r="B98" s="48" t="s">
+        <v>309</v>
+      </c>
+      <c r="C98" s="49"/>
+      <c r="D98" s="49"/>
+      <c r="E98" s="49"/>
+      <c r="F98" s="51"/>
+      <c r="G98" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="H98" s="70"/>
+      <c r="I98" s="71"/>
+      <c r="J98" s="72"/>
+    </row>
+    <row r="99" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="24">
+        <v>6</v>
+      </c>
+      <c r="B99" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="C99" s="43"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="43"/>
+      <c r="F99" s="45"/>
+      <c r="G99" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="H99" s="38"/>
+      <c r="I99" s="39"/>
+      <c r="J99" s="40"/>
+    </row>
+    <row r="100" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="24">
         <v>7</v>
       </c>
-      <c r="B6" s="175"/>
-      <c r="C6" s="175"/>
-      <c r="D6" s="175"/>
-      <c r="E6" s="175"/>
-      <c r="F6" s="167" t="s">
+      <c r="B100" s="48" t="s">
+        <v>320</v>
+      </c>
+      <c r="C100" s="49"/>
+      <c r="D100" s="49"/>
+      <c r="E100" s="49"/>
+      <c r="F100" s="51"/>
+      <c r="G100" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="H100" s="70"/>
+      <c r="I100" s="71"/>
+      <c r="J100" s="72"/>
+    </row>
+    <row r="101" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="24">
+        <v>8</v>
+      </c>
+      <c r="B101" s="48" t="s">
+        <v>327</v>
+      </c>
+      <c r="C101" s="49"/>
+      <c r="D101" s="49"/>
+      <c r="E101" s="49"/>
+      <c r="F101" s="51"/>
+      <c r="G101" s="49" t="s">
+        <v>328</v>
+      </c>
+      <c r="H101" s="70"/>
+      <c r="I101" s="71"/>
+      <c r="J101" s="72"/>
+    </row>
+    <row r="102" spans="1:20" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="26">
+        <v>9</v>
+      </c>
+      <c r="B102" s="111" t="s">
+        <v>82</v>
+      </c>
+      <c r="C102" s="111"/>
+      <c r="D102" s="111"/>
+      <c r="E102" s="111"/>
+      <c r="F102" s="112"/>
+      <c r="G102" s="111" t="s">
+        <v>331</v>
+      </c>
+      <c r="H102" s="113"/>
+      <c r="I102" s="114"/>
+      <c r="J102" s="115"/>
+    </row>
+    <row r="103" spans="1:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" spans="1:20" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="148" t="s">
+        <v>521</v>
+      </c>
+      <c r="B104" s="148"/>
+      <c r="C104" s="148"/>
+      <c r="D104" s="148"/>
+      <c r="E104" s="148"/>
+      <c r="F104" s="148"/>
+      <c r="G104" s="148"/>
+      <c r="H104" s="148"/>
+      <c r="I104" s="148"/>
+      <c r="J104" s="148"/>
+    </row>
+    <row r="105" spans="1:20" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="147" t="s">
+        <v>284</v>
+      </c>
+      <c r="B105" s="147"/>
+      <c r="C105" s="147"/>
+      <c r="D105" s="147"/>
+      <c r="E105" s="147"/>
+      <c r="F105" s="147"/>
+      <c r="G105" s="147"/>
+      <c r="H105" s="147"/>
+      <c r="I105" s="147"/>
+      <c r="J105" s="147"/>
+      <c r="K105" s="73"/>
+      <c r="L105" s="73"/>
+      <c r="M105" s="73"/>
+      <c r="N105" s="73"/>
+      <c r="O105" s="73"/>
+      <c r="P105" s="73"/>
+      <c r="Q105" s="73"/>
+      <c r="R105" s="73"/>
+      <c r="S105" s="73"/>
+      <c r="T105" s="73"/>
+    </row>
+    <row r="106" spans="1:20" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="B106" s="17"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="17"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="19"/>
+      <c r="I106" s="19"/>
+      <c r="J106" s="19"/>
+    </row>
+    <row r="107" spans="1:20" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c r="H107" s="18"/>
+      <c r="I107" s="154" t="s">
+        <v>59</v>
+      </c>
+      <c r="J107" s="154"/>
+      <c r="K107" s="74"/>
+      <c r="L107" s="74"/>
+    </row>
+    <row r="108" spans="1:20" s="16" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c r="H108" s="18"/>
+      <c r="I108" s="149" t="s">
+        <v>332</v>
+      </c>
+      <c r="J108" s="149"/>
+      <c r="K108" s="74"/>
+      <c r="L108" s="74"/>
+    </row>
+    <row r="109" spans="1:20" s="16" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="132" t="s">
+        <v>210</v>
+      </c>
+      <c r="B109" s="133" t="s">
+        <v>203</v>
+      </c>
+      <c r="C109" s="134" t="s">
+        <v>204</v>
+      </c>
+      <c r="D109" s="133" t="s">
+        <v>205</v>
+      </c>
+      <c r="E109" s="134" t="s">
+        <v>213</v>
+      </c>
+      <c r="F109" s="133" t="s">
+        <v>209</v>
+      </c>
+      <c r="G109" s="164" t="s">
+        <v>206</v>
+      </c>
+      <c r="H109" s="165"/>
+      <c r="I109" s="133" t="s">
+        <v>207</v>
+      </c>
+      <c r="J109" s="135" t="s">
+        <v>208</v>
+      </c>
+      <c r="K109" s="74"/>
+      <c r="L109" s="74"/>
+    </row>
+    <row r="110" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="95" t="s">
+        <v>335</v>
+      </c>
+      <c r="B110" s="34">
+        <v>1</v>
+      </c>
+      <c r="C110" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="D110" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="F110" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="H110" s="30"/>
+      <c r="I110" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J110" s="28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="B111" s="36">
+        <v>2</v>
+      </c>
+      <c r="C111" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D111" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" s="67"/>
+      <c r="F111" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="H111" s="67"/>
+      <c r="I111" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="J111" s="32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B112" s="36">
+        <v>3</v>
+      </c>
+      <c r="C112" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D112" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="F112" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="G112" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="H112" s="67"/>
+      <c r="I112" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="J112" s="32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="B113" s="36">
+        <v>4</v>
+      </c>
+      <c r="C113" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="D113" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113" s="67" t="s">
+        <v>341</v>
+      </c>
+      <c r="H113" s="67"/>
+      <c r="I113" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="J113" s="32" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="B114" s="36">
         <v>5</v>
       </c>
-      <c r="G6" s="167"/>
-      <c r="H6" s="167"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="173"/>
-      <c r="L6" s="9"/>
-      <c r="N6" s="8"/>
-    </row>
-    <row r="7" spans="1:20" s="5" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:20" s="5" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:20" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-    </row>
-    <row r="10" spans="1:20" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-    </row>
-    <row r="11" spans="1:20" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-    </row>
-    <row r="12" spans="1:20" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-    </row>
-    <row r="13" spans="1:20" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-    </row>
-    <row r="14" spans="1:20" s="5" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-    </row>
-    <row r="15" spans="1:20" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="154" t="s">
-        <v>519</v>
-      </c>
-      <c r="B15" s="154"/>
-      <c r="C15" s="154"/>
-      <c r="D15" s="154"/>
-      <c r="E15" s="154"/>
-      <c r="F15" s="154"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="154"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="154"/>
-    </row>
-    <row r="16" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="155" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="155"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="155"/>
-      <c r="I16" s="155"/>
-      <c r="J16" s="155"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="77"/>
-      <c r="S16" s="77"/>
-      <c r="T16" s="77"/>
-    </row>
-    <row r="17" spans="1:12" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="53" t="s">
-        <v>216</v>
-      </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-    </row>
-    <row r="18" spans="1:12" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="158" t="s">
-        <v>217</v>
-      </c>
-      <c r="B18" s="158"/>
-      <c r="C18" s="158"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="158"/>
-      <c r="J18" s="158"/>
-    </row>
-    <row r="19" spans="1:12" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="157" t="s">
-        <v>46</v>
-      </c>
-      <c r="J19" s="157"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
-    </row>
-    <row r="20" spans="1:12" s="19" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="151" t="s">
-        <v>48</v>
-      </c>
-      <c r="J20" s="151"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-    </row>
-    <row r="21" spans="1:12" s="19" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="141" t="s">
+      <c r="C114" s="37" t="s">
+        <v>347</v>
+      </c>
+      <c r="D114" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" s="67"/>
+      <c r="F114" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114" s="67" t="s">
+        <v>348</v>
+      </c>
+      <c r="H114" s="67"/>
+      <c r="I114" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="J114" s="32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="B115" s="36">
+        <v>6</v>
+      </c>
+      <c r="C115" s="37" t="s">
+        <v>353</v>
+      </c>
+      <c r="D115" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="F115" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" s="67" t="s">
+        <v>354</v>
+      </c>
+      <c r="H115" s="67"/>
+      <c r="I115" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="J115" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="B116" s="36">
+        <v>7</v>
+      </c>
+      <c r="C116" s="37" t="s">
+        <v>359</v>
+      </c>
+      <c r="D116" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" s="67"/>
+      <c r="F116" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="G116" s="67" t="s">
+        <v>360</v>
+      </c>
+      <c r="H116" s="67"/>
+      <c r="I116" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="J116" s="32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="B117" s="36">
+        <v>8</v>
+      </c>
+      <c r="C117" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="D117" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="F117" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" s="67" t="s">
+        <v>366</v>
+      </c>
+      <c r="H117" s="67"/>
+      <c r="I117" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="J117" s="32" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="82" t="s">
+        <v>374</v>
+      </c>
+      <c r="B118" s="83">
+        <v>9</v>
+      </c>
+      <c r="C118" s="84" t="s">
+        <v>372</v>
+      </c>
+      <c r="D118" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="F118" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" s="79" t="s">
+        <v>373</v>
+      </c>
+      <c r="H118" s="79"/>
+      <c r="I118" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="J118" s="85" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="24">
+        <v>1</v>
+      </c>
+      <c r="B119" s="59" t="s">
+        <v>336</v>
+      </c>
+      <c r="C119" s="25"/>
+      <c r="D119" s="25"/>
+      <c r="E119" s="25"/>
+      <c r="F119" s="46"/>
+      <c r="G119" s="59" t="s">
+        <v>337</v>
+      </c>
+      <c r="H119" s="22"/>
+      <c r="I119" s="23"/>
+      <c r="J119" s="41"/>
+    </row>
+    <row r="120" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="24">
+        <v>2</v>
+      </c>
+      <c r="B120" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="C120" s="61"/>
+      <c r="D120" s="61"/>
+      <c r="E120" s="61"/>
+      <c r="F120" s="62"/>
+      <c r="G120" s="61" t="s">
+        <v>339</v>
+      </c>
+      <c r="H120" s="63"/>
+      <c r="I120" s="64"/>
+      <c r="J120" s="65"/>
+    </row>
+    <row r="121" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="24">
+        <v>3</v>
+      </c>
+      <c r="B121" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="C121" s="90"/>
+      <c r="D121" s="90"/>
+      <c r="E121" s="90"/>
+      <c r="F121" s="91"/>
+      <c r="G121" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="H121" s="92"/>
+      <c r="I121" s="93"/>
+      <c r="J121" s="94"/>
+    </row>
+    <row r="122" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="24">
+        <v>4</v>
+      </c>
+      <c r="B122" s="43" t="s">
+        <v>345</v>
+      </c>
+      <c r="C122" s="43"/>
+      <c r="D122" s="43"/>
+      <c r="E122" s="43"/>
+      <c r="F122" s="45"/>
+      <c r="G122" s="43" t="s">
+        <v>346</v>
+      </c>
+      <c r="H122" s="38"/>
+      <c r="I122" s="39"/>
+      <c r="J122" s="40"/>
+    </row>
+    <row r="123" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="24">
+        <v>5</v>
+      </c>
+      <c r="B123" s="48" t="s">
+        <v>351</v>
+      </c>
+      <c r="C123" s="49"/>
+      <c r="D123" s="49"/>
+      <c r="E123" s="49"/>
+      <c r="F123" s="51"/>
+      <c r="G123" s="49" t="s">
+        <v>352</v>
+      </c>
+      <c r="H123" s="70"/>
+      <c r="I123" s="71"/>
+      <c r="J123" s="72"/>
+    </row>
+    <row r="124" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="24">
+        <v>6</v>
+      </c>
+      <c r="B124" s="43" t="s">
+        <v>357</v>
+      </c>
+      <c r="C124" s="43"/>
+      <c r="D124" s="43"/>
+      <c r="E124" s="43"/>
+      <c r="F124" s="45"/>
+      <c r="G124" s="43" t="s">
+        <v>358</v>
+      </c>
+      <c r="H124" s="38"/>
+      <c r="I124" s="39"/>
+      <c r="J124" s="40"/>
+    </row>
+    <row r="125" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="24">
+        <v>7</v>
+      </c>
+      <c r="B125" s="48" t="s">
+        <v>363</v>
+      </c>
+      <c r="C125" s="49"/>
+      <c r="D125" s="49"/>
+      <c r="E125" s="49"/>
+      <c r="F125" s="51"/>
+      <c r="G125" s="49" t="s">
+        <v>364</v>
+      </c>
+      <c r="H125" s="70"/>
+      <c r="I125" s="71"/>
+      <c r="J125" s="72"/>
+    </row>
+    <row r="126" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="24">
+        <v>8</v>
+      </c>
+      <c r="B126" s="43" t="s">
+        <v>370</v>
+      </c>
+      <c r="C126" s="43"/>
+      <c r="D126" s="43"/>
+      <c r="E126" s="43"/>
+      <c r="F126" s="45"/>
+      <c r="G126" s="43" t="s">
+        <v>371</v>
+      </c>
+      <c r="H126" s="38"/>
+      <c r="I126" s="39"/>
+      <c r="J126" s="40"/>
+    </row>
+    <row r="127" spans="1:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="26">
+        <v>9</v>
+      </c>
+      <c r="B127" s="77" t="s">
+        <v>375</v>
+      </c>
+      <c r="C127" s="77"/>
+      <c r="D127" s="77"/>
+      <c r="E127" s="77"/>
+      <c r="F127" s="78"/>
+      <c r="G127" s="77" t="s">
+        <v>376</v>
+      </c>
+      <c r="H127" s="79"/>
+      <c r="I127" s="80"/>
+      <c r="J127" s="81"/>
+    </row>
+    <row r="129" spans="1:20" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="148" t="s">
+        <v>522</v>
+      </c>
+      <c r="B129" s="148"/>
+      <c r="C129" s="148"/>
+      <c r="D129" s="148"/>
+      <c r="E129" s="148"/>
+      <c r="F129" s="148"/>
+      <c r="G129" s="148"/>
+      <c r="H129" s="148"/>
+      <c r="I129" s="148"/>
+      <c r="J129" s="148"/>
+    </row>
+    <row r="130" spans="1:20" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="147" t="s">
+        <v>21</v>
+      </c>
+      <c r="B130" s="147"/>
+      <c r="C130" s="147"/>
+      <c r="D130" s="147"/>
+      <c r="E130" s="147"/>
+      <c r="F130" s="147"/>
+      <c r="G130" s="147"/>
+      <c r="H130" s="147"/>
+      <c r="I130" s="147"/>
+      <c r="J130" s="147"/>
+      <c r="K130" s="73"/>
+      <c r="L130" s="73"/>
+      <c r="M130" s="73"/>
+      <c r="N130" s="73"/>
+      <c r="O130" s="73"/>
+      <c r="P130" s="73"/>
+      <c r="Q130" s="73"/>
+      <c r="R130" s="73"/>
+      <c r="S130" s="73"/>
+      <c r="T130" s="73"/>
+    </row>
+    <row r="131" spans="1:20" s="15" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="50" t="s">
+        <v>377</v>
+      </c>
+      <c r="B131" s="17"/>
+      <c r="C131" s="17"/>
+      <c r="D131" s="17"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="17"/>
+      <c r="G131" s="17"/>
+      <c r="H131" s="19"/>
+      <c r="I131" s="19"/>
+      <c r="J131" s="19"/>
+    </row>
+    <row r="132" spans="1:20" s="15" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="50" t="s">
+        <v>378</v>
+      </c>
+      <c r="B132" s="17"/>
+      <c r="C132" s="17"/>
+      <c r="D132" s="17"/>
+      <c r="E132" s="17"/>
+      <c r="F132" s="17"/>
+      <c r="G132" s="17"/>
+      <c r="H132" s="19"/>
+      <c r="I132" s="19"/>
+      <c r="J132" s="19"/>
+    </row>
+    <row r="133" spans="1:20" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c r="H133" s="18"/>
+      <c r="I133" s="154" t="s">
+        <v>86</v>
+      </c>
+      <c r="J133" s="154"/>
+      <c r="K133" s="74"/>
+      <c r="L133" s="74"/>
+    </row>
+    <row r="134" spans="1:20" s="16" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c r="H134" s="18"/>
+      <c r="I134" s="149" t="s">
+        <v>88</v>
+      </c>
+      <c r="J134" s="149"/>
+      <c r="K134" s="74"/>
+      <c r="L134" s="74"/>
+    </row>
+    <row r="135" spans="1:20" s="16" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="132" t="s">
         <v>210</v>
       </c>
-      <c r="B21" s="138" t="s">
+      <c r="B135" s="133" t="s">
         <v>203</v>
       </c>
-      <c r="C21" s="139" t="s">
+      <c r="C135" s="134" t="s">
         <v>204</v>
       </c>
-      <c r="D21" s="138" t="s">
+      <c r="D135" s="133" t="s">
         <v>205</v>
       </c>
-      <c r="E21" s="139" t="s">
+      <c r="E135" s="134" t="s">
         <v>213</v>
       </c>
-      <c r="F21" s="138" t="s">
+      <c r="F135" s="133" t="s">
         <v>209</v>
       </c>
-      <c r="G21" s="152" t="s">
+      <c r="G135" s="164" t="s">
         <v>206</v>
       </c>
-      <c r="H21" s="153"/>
-      <c r="I21" s="138" t="s">
+      <c r="H135" s="165"/>
+      <c r="I135" s="133" t="s">
         <v>207</v>
       </c>
-      <c r="J21" s="142" t="s">
+      <c r="J135" s="135" t="s">
         <v>208</v>
       </c>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
-    </row>
-    <row r="22" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="100" t="s">
-        <v>219</v>
-      </c>
-      <c r="B22" s="112">
+      <c r="K135" s="74"/>
+      <c r="L135" s="74"/>
+    </row>
+    <row r="136" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="B136" s="34">
         <v>1</v>
       </c>
-      <c r="C22" s="113" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="50" t="s">
+      <c r="C136" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="D136" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="E136" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="F136" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G136" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="H136" s="30"/>
+      <c r="I136" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="J136" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="B137" s="36">
+        <v>2</v>
+      </c>
+      <c r="C137" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="D137" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E137" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="F137" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="G137" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="H137" s="67"/>
+      <c r="I137" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="J137" s="32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="B138" s="36">
+        <v>3</v>
+      </c>
+      <c r="C138" s="37" t="s">
+        <v>383</v>
+      </c>
+      <c r="D138" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="E138" s="67" t="s">
+        <v>526</v>
+      </c>
+      <c r="F138" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="G138" s="67" t="s">
+        <v>385</v>
+      </c>
+      <c r="H138" s="67"/>
+      <c r="I138" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="J138" s="32" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="31" t="s">
+        <v>391</v>
+      </c>
+      <c r="B139" s="36">
+        <v>4</v>
+      </c>
+      <c r="C139" s="37" t="s">
+        <v>389</v>
+      </c>
+      <c r="D139" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E139" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="F139" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="G139" s="67" t="s">
+        <v>390</v>
+      </c>
+      <c r="H139" s="67"/>
+      <c r="I139" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="J139" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="31" t="s">
+        <v>396</v>
+      </c>
+      <c r="B140" s="36">
+        <v>5</v>
+      </c>
+      <c r="C140" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="D140" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E140" s="67"/>
+      <c r="F140" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="G140" s="67" t="s">
+        <v>395</v>
+      </c>
+      <c r="H140" s="67"/>
+      <c r="I140" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="J140" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="B141" s="36">
+        <v>6</v>
+      </c>
+      <c r="C141" s="37" t="s">
+        <v>400</v>
+      </c>
+      <c r="D141" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E141" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="F141" s="33" t="s">
+        <v>410</v>
+      </c>
+      <c r="G141" s="67" t="s">
+        <v>401</v>
+      </c>
+      <c r="H141" s="67"/>
+      <c r="I141" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="J141" s="32" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="82" t="s">
+        <v>409</v>
+      </c>
+      <c r="B142" s="83">
+        <v>7</v>
+      </c>
+      <c r="C142" s="84" t="s">
+        <v>405</v>
+      </c>
+      <c r="D142" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="E142" s="79" t="s">
+        <v>198</v>
+      </c>
+      <c r="F142" s="86" t="s">
+        <v>410</v>
+      </c>
+      <c r="G142" s="79" t="s">
+        <v>406</v>
+      </c>
+      <c r="H142" s="79"/>
+      <c r="I142" s="85" t="s">
+        <v>407</v>
+      </c>
+      <c r="J142" s="85" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="24">
+        <v>1</v>
+      </c>
+      <c r="B143" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="C143" s="25"/>
+      <c r="D143" s="25"/>
+      <c r="E143" s="25"/>
+      <c r="F143" s="46"/>
+      <c r="G143" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="H143" s="22"/>
+      <c r="I143" s="23"/>
+      <c r="J143" s="41"/>
+    </row>
+    <row r="144" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="24">
+        <v>2</v>
+      </c>
+      <c r="B144" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="C144" s="61"/>
+      <c r="D144" s="61"/>
+      <c r="E144" s="61"/>
+      <c r="F144" s="62"/>
+      <c r="G144" s="61" t="s">
+        <v>382</v>
+      </c>
+      <c r="H144" s="63"/>
+      <c r="I144" s="64"/>
+      <c r="J144" s="65"/>
+    </row>
+    <row r="145" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="24">
+        <v>3</v>
+      </c>
+      <c r="B145" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="C145" s="43"/>
+      <c r="D145" s="43"/>
+      <c r="E145" s="43"/>
+      <c r="F145" s="45"/>
+      <c r="G145" s="43" t="s">
+        <v>388</v>
+      </c>
+      <c r="H145" s="38"/>
+      <c r="I145" s="39"/>
+      <c r="J145" s="40"/>
+    </row>
+    <row r="146" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="24">
+        <v>4</v>
+      </c>
+      <c r="B146" s="60" t="s">
+        <v>392</v>
+      </c>
+      <c r="C146" s="61"/>
+      <c r="D146" s="61"/>
+      <c r="E146" s="61"/>
+      <c r="F146" s="62"/>
+      <c r="G146" s="61" t="s">
+        <v>393</v>
+      </c>
+      <c r="H146" s="63"/>
+      <c r="I146" s="64"/>
+      <c r="J146" s="65"/>
+    </row>
+    <row r="147" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="24">
+        <v>5</v>
+      </c>
+      <c r="B147" s="43" t="s">
+        <v>398</v>
+      </c>
+      <c r="C147" s="43"/>
+      <c r="D147" s="43"/>
+      <c r="E147" s="43"/>
+      <c r="F147" s="45"/>
+      <c r="G147" s="43" t="s">
+        <v>399</v>
+      </c>
+      <c r="H147" s="38"/>
+      <c r="I147" s="39"/>
+      <c r="J147" s="40"/>
+    </row>
+    <row r="148" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="24">
+        <v>6</v>
+      </c>
+      <c r="B148" s="48" t="s">
+        <v>403</v>
+      </c>
+      <c r="C148" s="49"/>
+      <c r="D148" s="49"/>
+      <c r="E148" s="49"/>
+      <c r="F148" s="51"/>
+      <c r="G148" s="49" t="s">
+        <v>404</v>
+      </c>
+      <c r="H148" s="70"/>
+      <c r="I148" s="71"/>
+      <c r="J148" s="72"/>
+    </row>
+    <row r="149" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="26">
+        <v>7</v>
+      </c>
+      <c r="B149" s="77" t="s">
+        <v>411</v>
+      </c>
+      <c r="C149" s="77"/>
+      <c r="D149" s="77"/>
+      <c r="E149" s="77"/>
+      <c r="F149" s="78"/>
+      <c r="G149" s="77" t="s">
+        <v>412</v>
+      </c>
+      <c r="H149" s="79"/>
+      <c r="I149" s="80"/>
+      <c r="J149" s="81"/>
+    </row>
+    <row r="151" spans="1:20" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="166" t="s">
+        <v>523</v>
+      </c>
+      <c r="B151" s="166"/>
+      <c r="C151" s="166"/>
+      <c r="D151" s="166"/>
+      <c r="E151" s="166"/>
+      <c r="F151" s="166"/>
+      <c r="G151" s="166"/>
+      <c r="H151" s="166"/>
+      <c r="I151" s="166"/>
+      <c r="J151" s="166"/>
+    </row>
+    <row r="152" spans="1:20" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="147" t="s">
+        <v>21</v>
+      </c>
+      <c r="B152" s="147"/>
+      <c r="C152" s="147"/>
+      <c r="D152" s="147"/>
+      <c r="E152" s="147"/>
+      <c r="F152" s="147"/>
+      <c r="G152" s="147"/>
+      <c r="H152" s="147"/>
+      <c r="I152" s="147"/>
+      <c r="J152" s="147"/>
+      <c r="K152" s="73"/>
+      <c r="L152" s="73"/>
+      <c r="M152" s="73"/>
+      <c r="N152" s="73"/>
+      <c r="O152" s="73"/>
+      <c r="P152" s="73"/>
+      <c r="Q152" s="73"/>
+      <c r="R152" s="73"/>
+      <c r="S152" s="73"/>
+      <c r="T152" s="73"/>
+    </row>
+    <row r="153" spans="1:20" s="15" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="50" t="s">
+        <v>527</v>
+      </c>
+      <c r="B153" s="17"/>
+      <c r="C153" s="17"/>
+      <c r="D153" s="17"/>
+      <c r="E153" s="17"/>
+      <c r="F153" s="17"/>
+      <c r="G153" s="17"/>
+      <c r="H153" s="19"/>
+      <c r="I153" s="19"/>
+      <c r="J153" s="19"/>
+    </row>
+    <row r="154" spans="1:20" s="15" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="50" t="s">
+        <v>528</v>
+      </c>
+      <c r="B154" s="17"/>
+      <c r="C154" s="17"/>
+      <c r="D154" s="17"/>
+      <c r="E154" s="17"/>
+      <c r="F154" s="17"/>
+      <c r="G154" s="17"/>
+      <c r="H154" s="19"/>
+      <c r="I154" s="19"/>
+      <c r="J154" s="19"/>
+    </row>
+    <row r="155" spans="1:20" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B155" s="14"/>
+      <c r="C155" s="14"/>
+      <c r="D155" s="14"/>
+      <c r="E155" s="14"/>
+      <c r="F155" s="14"/>
+      <c r="H155" s="18"/>
+      <c r="I155" s="154" t="s">
+        <v>23</v>
+      </c>
+      <c r="J155" s="154"/>
+      <c r="K155" s="74"/>
+      <c r="L155" s="74"/>
+    </row>
+    <row r="156" spans="1:20" s="16" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B156" s="14"/>
+      <c r="C156" s="14"/>
+      <c r="D156" s="14"/>
+      <c r="E156" s="14"/>
+      <c r="F156" s="14"/>
+      <c r="H156" s="18"/>
+      <c r="I156" s="154" t="s">
+        <v>113</v>
+      </c>
+      <c r="J156" s="154"/>
+      <c r="K156" s="74"/>
+      <c r="L156" s="74"/>
+    </row>
+    <row r="157" spans="1:20" s="16" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="132" t="s">
+        <v>210</v>
+      </c>
+      <c r="B157" s="133" t="s">
+        <v>203</v>
+      </c>
+      <c r="C157" s="134" t="s">
+        <v>204</v>
+      </c>
+      <c r="D157" s="133" t="s">
+        <v>205</v>
+      </c>
+      <c r="E157" s="134" t="s">
+        <v>213</v>
+      </c>
+      <c r="F157" s="133" t="s">
+        <v>209</v>
+      </c>
+      <c r="G157" s="164" t="s">
+        <v>206</v>
+      </c>
+      <c r="H157" s="165"/>
+      <c r="I157" s="133" t="s">
+        <v>207</v>
+      </c>
+      <c r="J157" s="135" t="s">
+        <v>208</v>
+      </c>
+      <c r="K157" s="74"/>
+      <c r="L157" s="74"/>
+    </row>
+    <row r="158" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="B158" s="34">
+        <v>1</v>
+      </c>
+      <c r="C158" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="D158" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E158" s="30"/>
+      <c r="F158" s="29" t="s">
+        <v>414</v>
+      </c>
+      <c r="G158" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="H158" s="30"/>
+      <c r="I158" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J158" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="31" t="s">
+        <v>418</v>
+      </c>
+      <c r="B159" s="36">
+        <v>2</v>
+      </c>
+      <c r="C159" s="37" t="s">
+        <v>416</v>
+      </c>
+      <c r="D159" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E159" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="F159" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="G159" s="67" t="s">
+        <v>417</v>
+      </c>
+      <c r="H159" s="67"/>
+      <c r="I159" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="J159" s="32" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="31" t="s">
+        <v>424</v>
+      </c>
+      <c r="B160" s="36">
+        <v>3</v>
+      </c>
+      <c r="C160" s="37" t="s">
+        <v>421</v>
+      </c>
+      <c r="D160" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E160" s="67" t="s">
+        <v>422</v>
+      </c>
+      <c r="F160" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="G160" s="67" t="s">
+        <v>423</v>
+      </c>
+      <c r="H160" s="67"/>
+      <c r="I160" s="32" t="s">
+        <v>445</v>
+      </c>
+      <c r="J160" s="32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="31" t="s">
+        <v>427</v>
+      </c>
+      <c r="B161" s="36">
+        <v>4</v>
+      </c>
+      <c r="C161" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="D161" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E161" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="F161" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="G161" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="H161" s="67"/>
+      <c r="I161" s="32" t="s">
+        <v>444</v>
+      </c>
+      <c r="J161" s="32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="31" t="s">
+        <v>429</v>
+      </c>
+      <c r="B162" s="36">
+        <v>5</v>
+      </c>
+      <c r="C162" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="D162" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E162" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="F162" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="G162" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="H162" s="67"/>
+      <c r="I162" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="J162" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="31" t="s">
+        <v>434</v>
+      </c>
+      <c r="B163" s="36">
+        <v>6</v>
+      </c>
+      <c r="C163" s="37" t="s">
+        <v>431</v>
+      </c>
+      <c r="D163" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E163" s="67" t="s">
+        <v>212</v>
+      </c>
+      <c r="F163" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="G163" s="67" t="s">
+        <v>432</v>
+      </c>
+      <c r="H163" s="67"/>
+      <c r="I163" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J163" s="32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="31" t="s">
+        <v>439</v>
+      </c>
+      <c r="B164" s="36">
+        <v>7</v>
+      </c>
+      <c r="C164" s="37" t="s">
+        <v>436</v>
+      </c>
+      <c r="D164" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E164" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="F164" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="G164" s="67" t="s">
+        <v>437</v>
+      </c>
+      <c r="H164" s="67"/>
+      <c r="I164" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="J164" s="32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="31" t="s">
+        <v>441</v>
+      </c>
+      <c r="B165" s="36">
+        <v>8</v>
+      </c>
+      <c r="C165" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="D165" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E165" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="F165" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="G165" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="H165" s="67"/>
+      <c r="I165" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="J165" s="32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="52">
+        <v>1</v>
+      </c>
+      <c r="B166" s="116" t="s">
+        <v>191</v>
+      </c>
+      <c r="C166" s="53"/>
+      <c r="D166" s="53"/>
+      <c r="E166" s="53"/>
+      <c r="F166" s="54"/>
+      <c r="G166" s="53" t="s">
+        <v>415</v>
+      </c>
+      <c r="H166" s="30"/>
+      <c r="I166" s="55"/>
+      <c r="J166" s="56"/>
+    </row>
+    <row r="167" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="24">
+        <v>2</v>
+      </c>
+      <c r="B167" s="60" t="s">
+        <v>419</v>
+      </c>
+      <c r="C167" s="61"/>
+      <c r="D167" s="61"/>
+      <c r="E167" s="61"/>
+      <c r="F167" s="62"/>
+      <c r="G167" s="61" t="s">
+        <v>420</v>
+      </c>
+      <c r="H167" s="63"/>
+      <c r="I167" s="64"/>
+      <c r="J167" s="65"/>
+    </row>
+    <row r="168" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="24">
+        <v>3</v>
+      </c>
+      <c r="B168" s="61" t="s">
+        <v>425</v>
+      </c>
+      <c r="C168" s="43"/>
+      <c r="D168" s="43"/>
+      <c r="E168" s="43"/>
+      <c r="F168" s="45"/>
+      <c r="G168" s="43" t="s">
+        <v>426</v>
+      </c>
+      <c r="H168" s="38"/>
+      <c r="I168" s="39"/>
+      <c r="J168" s="40"/>
+    </row>
+    <row r="169" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="24">
+        <v>4</v>
+      </c>
+      <c r="B169" s="117" t="s">
+        <v>190</v>
+      </c>
+      <c r="C169" s="49"/>
+      <c r="D169" s="49"/>
+      <c r="E169" s="49"/>
+      <c r="F169" s="51"/>
+      <c r="G169" s="49" t="s">
+        <v>428</v>
+      </c>
+      <c r="H169" s="70"/>
+      <c r="I169" s="71"/>
+      <c r="J169" s="72"/>
+    </row>
+    <row r="170" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="24">
+        <v>5</v>
+      </c>
+      <c r="B170" s="118" t="s">
+        <v>188</v>
+      </c>
+      <c r="C170" s="49"/>
+      <c r="D170" s="49"/>
+      <c r="E170" s="49"/>
+      <c r="F170" s="51"/>
+      <c r="G170" s="49" t="s">
+        <v>430</v>
+      </c>
+      <c r="H170" s="70"/>
+      <c r="I170" s="71"/>
+      <c r="J170" s="72"/>
+    </row>
+    <row r="171" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="24">
+        <v>6</v>
+      </c>
+      <c r="B171" s="118" t="s">
+        <v>433</v>
+      </c>
+      <c r="C171" s="49"/>
+      <c r="D171" s="49"/>
+      <c r="E171" s="49"/>
+      <c r="F171" s="51"/>
+      <c r="G171" s="49" t="s">
+        <v>435</v>
+      </c>
+      <c r="H171" s="22"/>
+      <c r="I171" s="23"/>
+      <c r="J171" s="41"/>
+    </row>
+    <row r="172" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="24">
+        <v>7</v>
+      </c>
+      <c r="B172" s="119" t="s">
+        <v>438</v>
+      </c>
+      <c r="C172" s="25"/>
+      <c r="D172" s="25"/>
+      <c r="E172" s="25"/>
+      <c r="F172" s="46"/>
+      <c r="G172" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="H172" s="22"/>
+      <c r="I172" s="23"/>
+      <c r="J172" s="41"/>
+    </row>
+    <row r="173" spans="1:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="26">
+        <v>8</v>
+      </c>
+      <c r="B173" s="120" t="s">
+        <v>146</v>
+      </c>
+      <c r="C173" s="121"/>
+      <c r="D173" s="121"/>
+      <c r="E173" s="121"/>
+      <c r="F173" s="122"/>
+      <c r="G173" s="121" t="s">
+        <v>442</v>
+      </c>
+      <c r="H173" s="123"/>
+      <c r="I173" s="124"/>
+      <c r="J173" s="125"/>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A174" s="126"/>
+      <c r="B174" s="43"/>
+      <c r="C174" s="43"/>
+      <c r="D174" s="43"/>
+      <c r="E174" s="43"/>
+      <c r="F174" s="43"/>
+      <c r="G174" s="43"/>
+      <c r="H174" s="38"/>
+      <c r="I174" s="39"/>
+      <c r="J174" s="39"/>
+    </row>
+    <row r="175" spans="1:20" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A175" s="148" t="s">
+        <v>443</v>
+      </c>
+      <c r="B175" s="148"/>
+      <c r="C175" s="148"/>
+      <c r="D175" s="148"/>
+      <c r="E175" s="148"/>
+      <c r="F175" s="148"/>
+      <c r="G175" s="148"/>
+      <c r="H175" s="148"/>
+      <c r="I175" s="148"/>
+      <c r="J175" s="148"/>
+    </row>
+    <row r="176" spans="1:20" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="147" t="s">
+        <v>477</v>
+      </c>
+      <c r="B176" s="147"/>
+      <c r="C176" s="147"/>
+      <c r="D176" s="147"/>
+      <c r="E176" s="147"/>
+      <c r="F176" s="147"/>
+      <c r="G176" s="147"/>
+      <c r="H176" s="147"/>
+      <c r="I176" s="147"/>
+      <c r="J176" s="147"/>
+      <c r="K176" s="73"/>
+      <c r="L176" s="73"/>
+      <c r="M176" s="73"/>
+      <c r="N176" s="73"/>
+      <c r="O176" s="73"/>
+      <c r="P176" s="73"/>
+      <c r="Q176" s="73"/>
+      <c r="R176" s="73"/>
+      <c r="S176" s="73"/>
+      <c r="T176" s="73"/>
+    </row>
+    <row r="177" spans="1:12" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A177" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="B177" s="17"/>
+      <c r="C177" s="17"/>
+      <c r="D177" s="17"/>
+      <c r="E177" s="17"/>
+      <c r="F177" s="17"/>
+      <c r="G177" s="17"/>
+      <c r="H177" s="19"/>
+      <c r="I177" s="19"/>
+      <c r="J177" s="19"/>
+    </row>
+    <row r="178" spans="1:12" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A178" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="B178" s="17"/>
+      <c r="C178" s="17"/>
+      <c r="D178" s="17"/>
+      <c r="E178" s="17"/>
+      <c r="F178" s="17"/>
+      <c r="G178" s="17"/>
+      <c r="H178" s="19"/>
+      <c r="I178" s="19"/>
+      <c r="J178" s="19"/>
+    </row>
+    <row r="179" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A179" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B179" s="14"/>
+      <c r="C179" s="14"/>
+      <c r="D179" s="14"/>
+      <c r="E179" s="14"/>
+      <c r="F179" s="14"/>
+      <c r="H179" s="18"/>
+      <c r="I179" s="154" t="s">
+        <v>156</v>
+      </c>
+      <c r="J179" s="154"/>
+      <c r="K179" s="74"/>
+      <c r="L179" s="74"/>
+    </row>
+    <row r="180" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B180" s="14"/>
+      <c r="C180" s="14"/>
+      <c r="D180" s="14"/>
+      <c r="E180" s="14"/>
+      <c r="F180" s="14"/>
+      <c r="H180" s="18"/>
+      <c r="I180" s="154" t="s">
+        <v>158</v>
+      </c>
+      <c r="J180" s="154"/>
+      <c r="K180" s="74"/>
+      <c r="L180" s="74"/>
+    </row>
+    <row r="181" spans="1:12" s="16" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="132" t="s">
+        <v>210</v>
+      </c>
+      <c r="B181" s="133" t="s">
+        <v>203</v>
+      </c>
+      <c r="C181" s="134" t="s">
+        <v>204</v>
+      </c>
+      <c r="D181" s="133" t="s">
+        <v>205</v>
+      </c>
+      <c r="E181" s="134" t="s">
+        <v>213</v>
+      </c>
+      <c r="F181" s="133" t="s">
+        <v>209</v>
+      </c>
+      <c r="G181" s="164" t="s">
+        <v>206</v>
+      </c>
+      <c r="H181" s="165"/>
+      <c r="I181" s="133" t="s">
+        <v>207</v>
+      </c>
+      <c r="J181" s="135" t="s">
+        <v>208</v>
+      </c>
+      <c r="K181" s="74"/>
+      <c r="L181" s="74"/>
+    </row>
+    <row r="182" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="27" t="s">
+        <v>448</v>
+      </c>
+      <c r="B182" s="34">
+        <v>1</v>
+      </c>
+      <c r="C182" s="35" t="s">
+        <v>446</v>
+      </c>
+      <c r="D182" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E182" s="47" t="s">
+        <v>451</v>
+      </c>
+      <c r="F182" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="G182" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="H182" s="30"/>
+      <c r="I182" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="J182" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="K182" s="38"/>
+    </row>
+    <row r="183" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="31" t="s">
+        <v>452</v>
+      </c>
+      <c r="B183" s="36">
+        <v>2</v>
+      </c>
+      <c r="C183" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="D183" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E183" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="F183" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="G183" s="67" t="s">
+        <v>175</v>
+      </c>
+      <c r="H183" s="67"/>
+      <c r="I183" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="J183" s="32" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="31" t="s">
+        <v>454</v>
+      </c>
+      <c r="B184" s="36">
+        <v>3</v>
+      </c>
+      <c r="C184" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="D184" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E184" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="F184" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="G184" s="67" t="s">
+        <v>163</v>
+      </c>
+      <c r="H184" s="67"/>
+      <c r="I184" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="J184" s="32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="31" t="s">
+        <v>460</v>
+      </c>
+      <c r="B185" s="36">
+        <v>4</v>
+      </c>
+      <c r="C185" s="37" t="s">
+        <v>456</v>
+      </c>
+      <c r="D185" s="32" t="s">
+        <v>457</v>
+      </c>
+      <c r="E185" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="F185" s="33" t="s">
+        <v>525</v>
+      </c>
+      <c r="G185" s="67" t="s">
+        <v>458</v>
+      </c>
+      <c r="H185" s="67"/>
+      <c r="I185" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="J185" s="32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="31" t="s">
+        <v>465</v>
+      </c>
+      <c r="B186" s="36">
+        <v>5</v>
+      </c>
+      <c r="C186" s="37" t="s">
+        <v>462</v>
+      </c>
+      <c r="D186" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E186" s="67"/>
+      <c r="F186" s="33" t="s">
+        <v>463</v>
+      </c>
+      <c r="G186" s="67" t="s">
+        <v>464</v>
+      </c>
+      <c r="H186" s="67"/>
+      <c r="I186" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="J186" s="32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="31" t="s">
+        <v>471</v>
+      </c>
+      <c r="B187" s="36">
+        <v>6</v>
+      </c>
+      <c r="C187" s="37" t="s">
+        <v>468</v>
+      </c>
+      <c r="D187" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E187" s="67" t="s">
+        <v>192</v>
+      </c>
+      <c r="F187" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="G187" s="67" t="s">
+        <v>469</v>
+      </c>
+      <c r="H187" s="67"/>
+      <c r="I187" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="J187" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="31" t="s">
+        <v>473</v>
+      </c>
+      <c r="B188" s="36">
+        <v>7</v>
+      </c>
+      <c r="C188" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="D188" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E188" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="F188" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G188" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="H188" s="67"/>
+      <c r="I188" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="J188" s="32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="82" t="s">
+        <v>475</v>
+      </c>
+      <c r="B189" s="83">
+        <v>8</v>
+      </c>
+      <c r="C189" s="84" t="s">
+        <v>166</v>
+      </c>
+      <c r="D189" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="E189" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="F189" s="86" t="s">
+        <v>167</v>
+      </c>
+      <c r="G189" s="79" t="s">
+        <v>168</v>
+      </c>
+      <c r="H189" s="79"/>
+      <c r="I189" s="85" t="s">
+        <v>169</v>
+      </c>
+      <c r="J189" s="85" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="127">
+        <v>1</v>
+      </c>
+      <c r="B190" s="118" t="s">
+        <v>449</v>
+      </c>
+      <c r="C190" s="42"/>
+      <c r="D190" s="42"/>
+      <c r="E190" s="42"/>
+      <c r="F190" s="44"/>
+      <c r="G190" s="42" t="s">
+        <v>450</v>
+      </c>
+      <c r="H190" s="38"/>
+      <c r="I190" s="39"/>
+      <c r="J190" s="40"/>
+    </row>
+    <row r="191" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="24">
+        <v>2</v>
+      </c>
+      <c r="B191" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="C191" s="61"/>
+      <c r="D191" s="61"/>
+      <c r="E191" s="61"/>
+      <c r="F191" s="62"/>
+      <c r="G191" s="61" t="s">
+        <v>453</v>
+      </c>
+      <c r="H191" s="63"/>
+      <c r="I191" s="64"/>
+      <c r="J191" s="65"/>
+    </row>
+    <row r="192" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="24">
+        <v>3</v>
+      </c>
+      <c r="B192" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="C192" s="43"/>
+      <c r="D192" s="43"/>
+      <c r="E192" s="43"/>
+      <c r="F192" s="45"/>
+      <c r="G192" s="43" t="s">
+        <v>455</v>
+      </c>
+      <c r="H192" s="38"/>
+      <c r="I192" s="39"/>
+      <c r="J192" s="40"/>
+    </row>
+    <row r="193" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="24">
+        <v>4</v>
+      </c>
+      <c r="B193" s="48" t="s">
+        <v>459</v>
+      </c>
+      <c r="C193" s="49"/>
+      <c r="D193" s="49"/>
+      <c r="E193" s="49"/>
+      <c r="F193" s="51"/>
+      <c r="G193" s="49" t="s">
+        <v>461</v>
+      </c>
+      <c r="H193" s="70"/>
+      <c r="I193" s="71"/>
+      <c r="J193" s="72"/>
+    </row>
+    <row r="194" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="24">
+        <v>5</v>
+      </c>
+      <c r="B194" s="119" t="s">
+        <v>466</v>
+      </c>
+      <c r="C194" s="25"/>
+      <c r="D194" s="25"/>
+      <c r="E194" s="25"/>
+      <c r="F194" s="46"/>
+      <c r="G194" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="H194" s="22"/>
+      <c r="I194" s="23"/>
+      <c r="J194" s="41"/>
+    </row>
+    <row r="195" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="24">
+        <v>6</v>
+      </c>
+      <c r="B195" s="119" t="s">
+        <v>470</v>
+      </c>
+      <c r="C195" s="25"/>
+      <c r="D195" s="25"/>
+      <c r="E195" s="25"/>
+      <c r="F195" s="46"/>
+      <c r="G195" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="H195" s="22"/>
+      <c r="I195" s="23"/>
+      <c r="J195" s="41"/>
+    </row>
+    <row r="196" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="24">
+        <v>7</v>
+      </c>
+      <c r="B196" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="C196" s="25"/>
+      <c r="D196" s="25"/>
+      <c r="E196" s="25"/>
+      <c r="F196" s="46"/>
+      <c r="G196" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="H196" s="22"/>
+      <c r="I196" s="23"/>
+      <c r="J196" s="41"/>
+    </row>
+    <row r="197" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="26">
+        <v>8</v>
+      </c>
+      <c r="B197" s="120" t="s">
+        <v>211</v>
+      </c>
+      <c r="C197" s="121"/>
+      <c r="D197" s="121"/>
+      <c r="E197" s="121"/>
+      <c r="F197" s="122"/>
+      <c r="G197" s="121" t="s">
+        <v>476</v>
+      </c>
+      <c r="H197" s="123"/>
+      <c r="I197" s="124"/>
+      <c r="J197" s="125"/>
+    </row>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A198" s="126"/>
+      <c r="B198" s="43"/>
+      <c r="C198" s="43"/>
+      <c r="D198" s="43"/>
+      <c r="E198" s="43"/>
+      <c r="F198" s="43"/>
+      <c r="G198" s="43"/>
+      <c r="H198" s="38"/>
+      <c r="I198" s="39"/>
+      <c r="J198" s="39"/>
+    </row>
+    <row r="199" spans="1:20" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A199" s="148" t="s">
+        <v>524</v>
+      </c>
+      <c r="B199" s="148"/>
+      <c r="C199" s="148"/>
+      <c r="D199" s="148"/>
+      <c r="E199" s="148"/>
+      <c r="F199" s="148"/>
+      <c r="G199" s="148"/>
+      <c r="H199" s="148"/>
+      <c r="I199" s="148"/>
+      <c r="J199" s="148"/>
+    </row>
+    <row r="200" spans="1:20" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A200" s="147" t="s">
+        <v>21</v>
+      </c>
+      <c r="B200" s="147"/>
+      <c r="C200" s="147"/>
+      <c r="D200" s="147"/>
+      <c r="E200" s="147"/>
+      <c r="F200" s="147"/>
+      <c r="G200" s="147"/>
+      <c r="H200" s="147"/>
+      <c r="I200" s="147"/>
+      <c r="J200" s="147"/>
+      <c r="K200" s="73"/>
+      <c r="L200" s="73"/>
+      <c r="M200" s="73"/>
+      <c r="N200" s="73"/>
+      <c r="O200" s="73"/>
+      <c r="P200" s="73"/>
+      <c r="Q200" s="73"/>
+      <c r="R200" s="73"/>
+      <c r="S200" s="73"/>
+      <c r="T200" s="73"/>
+    </row>
+    <row r="201" spans="1:20" s="15" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="50" t="s">
+        <v>516</v>
+      </c>
+      <c r="B201" s="17"/>
+      <c r="C201" s="17"/>
+      <c r="D201" s="17"/>
+      <c r="E201" s="17"/>
+      <c r="F201" s="17"/>
+      <c r="G201" s="17"/>
+      <c r="H201" s="19"/>
+      <c r="I201" s="19"/>
+      <c r="J201" s="19"/>
+    </row>
+    <row r="202" spans="1:20" s="15" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="50" t="s">
+        <v>517</v>
+      </c>
+      <c r="B202" s="17"/>
+      <c r="C202" s="17"/>
+      <c r="D202" s="17"/>
+      <c r="E202" s="17"/>
+      <c r="F202" s="17"/>
+      <c r="G202" s="17"/>
+      <c r="H202" s="19"/>
+      <c r="I202" s="19"/>
+      <c r="J202" s="19"/>
+    </row>
+    <row r="203" spans="1:20" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A203" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B203" s="14"/>
+      <c r="C203" s="14"/>
+      <c r="D203" s="14"/>
+      <c r="E203" s="14"/>
+      <c r="F203" s="14"/>
+      <c r="H203" s="18"/>
+      <c r="I203" s="128"/>
+      <c r="J203" s="128"/>
+      <c r="K203" s="74"/>
+      <c r="L203" s="74"/>
+    </row>
+    <row r="204" spans="1:20" s="16" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B204" s="14"/>
+      <c r="C204" s="14"/>
+      <c r="D204" s="14"/>
+      <c r="E204" s="14"/>
+      <c r="F204" s="14"/>
+      <c r="H204" s="18"/>
+      <c r="I204" s="129"/>
+      <c r="J204" s="129"/>
+      <c r="K204" s="74"/>
+      <c r="L204" s="74"/>
+    </row>
+    <row r="205" spans="1:20" s="16" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="132" t="s">
+        <v>210</v>
+      </c>
+      <c r="B205" s="133" t="s">
+        <v>203</v>
+      </c>
+      <c r="C205" s="134" t="s">
+        <v>204</v>
+      </c>
+      <c r="D205" s="133" t="s">
+        <v>205</v>
+      </c>
+      <c r="E205" s="134" t="s">
+        <v>213</v>
+      </c>
+      <c r="F205" s="133" t="s">
+        <v>209</v>
+      </c>
+      <c r="G205" s="164" t="s">
+        <v>206</v>
+      </c>
+      <c r="H205" s="165"/>
+      <c r="I205" s="133" t="s">
+        <v>207</v>
+      </c>
+      <c r="J205" s="135" t="s">
+        <v>208</v>
+      </c>
+      <c r="K205" s="74"/>
+      <c r="L205" s="74"/>
+    </row>
+    <row r="206" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="27" t="s">
+        <v>478</v>
+      </c>
+      <c r="B206" s="34">
+        <v>1</v>
+      </c>
+      <c r="C206" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="D206" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E206" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="F206" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="G206" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="H206" s="30"/>
+      <c r="I206" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="J206" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="207" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B207" s="36">
+        <v>2</v>
+      </c>
+      <c r="C207" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D207" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E207" s="67"/>
+      <c r="F207" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="G207" s="67" t="s">
+        <v>134</v>
+      </c>
+      <c r="H207" s="67"/>
+      <c r="I207" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="J207" s="32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="208" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="31" t="s">
+        <v>480</v>
+      </c>
+      <c r="B208" s="36">
+        <v>3</v>
+      </c>
+      <c r="C208" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="D208" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E208" s="67" t="s">
+        <v>144</v>
+      </c>
+      <c r="F208" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="G208" s="67" t="s">
+        <v>145</v>
+      </c>
+      <c r="H208" s="67"/>
+      <c r="I208" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="J208" s="32" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="31" t="s">
+        <v>482</v>
+      </c>
+      <c r="B209" s="36">
+        <v>4</v>
+      </c>
+      <c r="C209" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="D209" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E209" s="67" t="s">
+        <v>198</v>
+      </c>
+      <c r="F209" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="G209" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="H209" s="67"/>
+      <c r="I209" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="J209" s="32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="31" t="s">
+        <v>484</v>
+      </c>
+      <c r="B210" s="36">
+        <v>5</v>
+      </c>
+      <c r="C210" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D210" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E210" s="67" t="s">
+        <v>526</v>
+      </c>
+      <c r="F210" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="G210" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="H210" s="67"/>
+      <c r="I210" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="J210" s="32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="31" t="s">
+        <v>489</v>
+      </c>
+      <c r="B211" s="36">
+        <v>6</v>
+      </c>
+      <c r="C211" s="37" t="s">
+        <v>486</v>
+      </c>
+      <c r="D211" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E211" s="67"/>
+      <c r="F211" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="G211" s="67" t="s">
+        <v>488</v>
+      </c>
+      <c r="H211" s="67"/>
+      <c r="I211" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="J211" s="32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="31" t="s">
+        <v>496</v>
+      </c>
+      <c r="B212" s="36">
+        <v>7</v>
+      </c>
+      <c r="C212" s="37" t="s">
+        <v>492</v>
+      </c>
+      <c r="D212" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E212" s="67" t="s">
         <v>201</v>
       </c>
-      <c r="F22" s="114" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="115" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22" s="115"/>
-      <c r="I22" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="K22" s="69"/>
-    </row>
-    <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="101" t="s">
-        <v>225</v>
-      </c>
-      <c r="B23" s="102">
+      <c r="F212" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="G212" s="67" t="s">
+        <v>493</v>
+      </c>
+      <c r="H212" s="67"/>
+      <c r="I212" s="32" t="s">
+        <v>494</v>
+      </c>
+      <c r="J212" s="32" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="31" t="s">
+        <v>501</v>
+      </c>
+      <c r="B213" s="36">
+        <v>8</v>
+      </c>
+      <c r="C213" s="37" t="s">
+        <v>499</v>
+      </c>
+      <c r="D213" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E213" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="F213" s="33" t="s">
+        <v>502</v>
+      </c>
+      <c r="G213" s="67" t="s">
+        <v>500</v>
+      </c>
+      <c r="H213" s="67"/>
+      <c r="I213" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="J213" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="31" t="s">
+        <v>507</v>
+      </c>
+      <c r="B214" s="36">
+        <v>9</v>
+      </c>
+      <c r="C214" s="37" t="s">
+        <v>505</v>
+      </c>
+      <c r="D214" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E214" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="F214" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="G214" s="67" t="s">
+        <v>506</v>
+      </c>
+      <c r="H214" s="67"/>
+      <c r="I214" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="J214" s="32" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="82" t="s">
+        <v>513</v>
+      </c>
+      <c r="B215" s="83">
+        <v>10</v>
+      </c>
+      <c r="C215" s="84" t="s">
+        <v>510</v>
+      </c>
+      <c r="D215" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="E215" s="79" t="s">
+        <v>199</v>
+      </c>
+      <c r="F215" s="86" t="s">
+        <v>512</v>
+      </c>
+      <c r="G215" s="79" t="s">
+        <v>511</v>
+      </c>
+      <c r="H215" s="79"/>
+      <c r="I215" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="J215" s="85" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="127">
+        <v>1</v>
+      </c>
+      <c r="B216" s="118" t="s">
+        <v>147</v>
+      </c>
+      <c r="C216" s="42"/>
+      <c r="D216" s="42"/>
+      <c r="E216" s="42"/>
+      <c r="F216" s="44"/>
+      <c r="G216" s="42" t="s">
+        <v>479</v>
+      </c>
+      <c r="H216" s="38"/>
+      <c r="I216" s="39"/>
+      <c r="J216" s="40"/>
+    </row>
+    <row r="217" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="130">
         <v>2</v>
       </c>
-      <c r="C23" s="103" t="s">
-        <v>221</v>
-      </c>
-      <c r="D23" s="104" t="s">
+      <c r="B217" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="C217" s="61"/>
+      <c r="D217" s="61"/>
+      <c r="E217" s="61"/>
+      <c r="F217" s="62"/>
+      <c r="G217" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="H217" s="63"/>
+      <c r="I217" s="64"/>
+      <c r="J217" s="65"/>
+    </row>
+    <row r="218" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="24">
+        <v>3</v>
+      </c>
+      <c r="B218" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="C218" s="49"/>
+      <c r="D218" s="49"/>
+      <c r="E218" s="49"/>
+      <c r="F218" s="51"/>
+      <c r="G218" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="H218" s="70"/>
+      <c r="I218" s="71"/>
+      <c r="J218" s="72"/>
+    </row>
+    <row r="219" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="24">
+        <v>4</v>
+      </c>
+      <c r="B219" s="119" t="s">
+        <v>214</v>
+      </c>
+      <c r="C219" s="25"/>
+      <c r="D219" s="25"/>
+      <c r="E219" s="25"/>
+      <c r="F219" s="46"/>
+      <c r="G219" s="25" t="s">
+        <v>483</v>
+      </c>
+      <c r="H219" s="22"/>
+      <c r="I219" s="23"/>
+      <c r="J219" s="41"/>
+    </row>
+    <row r="220" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="24">
+        <v>5</v>
+      </c>
+      <c r="B220" s="119" t="s">
+        <v>151</v>
+      </c>
+      <c r="C220" s="25"/>
+      <c r="D220" s="25"/>
+      <c r="E220" s="25"/>
+      <c r="F220" s="46"/>
+      <c r="G220" s="48" t="s">
+        <v>485</v>
+      </c>
+      <c r="H220" s="22"/>
+      <c r="I220" s="23"/>
+      <c r="J220" s="41"/>
+    </row>
+    <row r="221" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="24">
+        <v>6</v>
+      </c>
+      <c r="B221" s="119" t="s">
+        <v>490</v>
+      </c>
+      <c r="C221" s="25"/>
+      <c r="D221" s="25"/>
+      <c r="E221" s="25"/>
+      <c r="F221" s="46"/>
+      <c r="G221" s="48" t="s">
+        <v>491</v>
+      </c>
+      <c r="H221" s="22"/>
+      <c r="I221" s="23"/>
+      <c r="J221" s="41"/>
+    </row>
+    <row r="222" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="24">
+        <v>7</v>
+      </c>
+      <c r="B222" s="119" t="s">
+        <v>497</v>
+      </c>
+      <c r="C222" s="25"/>
+      <c r="D222" s="25"/>
+      <c r="E222" s="25"/>
+      <c r="F222" s="46"/>
+      <c r="G222" s="25" t="s">
+        <v>498</v>
+      </c>
+      <c r="H222" s="22"/>
+      <c r="I222" s="23"/>
+      <c r="J222" s="41"/>
+    </row>
+    <row r="223" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="24">
+        <v>8</v>
+      </c>
+      <c r="B223" s="119" t="s">
+        <v>503</v>
+      </c>
+      <c r="C223" s="25"/>
+      <c r="D223" s="25"/>
+      <c r="E223" s="25"/>
+      <c r="F223" s="46"/>
+      <c r="G223" s="25" t="s">
+        <v>504</v>
+      </c>
+      <c r="H223" s="22"/>
+      <c r="I223" s="23"/>
+      <c r="J223" s="41"/>
+    </row>
+    <row r="224" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="24">
+        <v>9</v>
+      </c>
+      <c r="B224" s="119" t="s">
+        <v>508</v>
+      </c>
+      <c r="C224" s="25"/>
+      <c r="D224" s="25"/>
+      <c r="E224" s="25"/>
+      <c r="F224" s="46"/>
+      <c r="G224" s="25" t="s">
+        <v>509</v>
+      </c>
+      <c r="H224" s="22"/>
+      <c r="I224" s="23"/>
+      <c r="J224" s="41"/>
+    </row>
+    <row r="225" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="26">
         <v>10</v>
       </c>
-      <c r="E23" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="105" t="s">
-        <v>161</v>
-      </c>
-      <c r="G23" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="H23" s="41"/>
-      <c r="I23" s="104" t="s">
-        <v>223</v>
-      </c>
-      <c r="J23" s="104" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="B24" s="39">
-        <v>3</v>
-      </c>
-      <c r="C24" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="92" t="s">
-        <v>212</v>
-      </c>
-      <c r="F24" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="G24" s="71" t="s">
-        <v>230</v>
-      </c>
-      <c r="H24" s="71"/>
-      <c r="I24" s="35" t="s">
-        <v>296</v>
-      </c>
-      <c r="J24" s="35" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="B25" s="39">
-        <v>4</v>
-      </c>
-      <c r="C25" s="40" t="s">
-        <v>233</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="G25" s="71" t="s">
-        <v>235</v>
-      </c>
-      <c r="H25" s="71"/>
-      <c r="I25" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="J25" s="35" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="B26" s="39">
-        <v>5</v>
-      </c>
-      <c r="C26" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="D26" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="71" t="s">
-        <v>357</v>
-      </c>
-      <c r="F26" s="36" t="s">
-        <v>244</v>
-      </c>
-      <c r="G26" s="71" t="s">
-        <v>242</v>
-      </c>
-      <c r="H26" s="71"/>
-      <c r="I26" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="J26" s="35" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="B27" s="39">
-        <v>6</v>
-      </c>
-      <c r="C27" s="40" t="s">
-        <v>247</v>
-      </c>
-      <c r="D27" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="71" t="s">
-        <v>527</v>
-      </c>
-      <c r="F27" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="71" t="s">
-        <v>248</v>
-      </c>
-      <c r="H27" s="71"/>
-      <c r="I27" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="J27" s="35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="B28" s="39">
-        <v>7</v>
-      </c>
-      <c r="C28" s="40" t="s">
-        <v>254</v>
-      </c>
-      <c r="D28" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="71"/>
-      <c r="F28" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="G28" s="71" t="s">
-        <v>255</v>
-      </c>
-      <c r="H28" s="71"/>
-      <c r="I28" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="J28" s="35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="106">
-        <v>1</v>
-      </c>
-      <c r="B29" s="107" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="108"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="109"/>
-      <c r="G29" s="108" t="s">
-        <v>220</v>
-      </c>
-      <c r="H29" s="110"/>
-      <c r="I29" s="110"/>
-      <c r="J29" s="111"/>
-    </row>
-    <row r="30" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="27">
-        <v>2</v>
-      </c>
-      <c r="B30" s="62" t="s">
-        <v>226</v>
-      </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="62" t="s">
-        <v>227</v>
-      </c>
-      <c r="H30" s="25"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="44"/>
-    </row>
-    <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27">
-        <v>3</v>
-      </c>
-      <c r="B31" s="63" t="s">
-        <v>231</v>
-      </c>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="64" t="s">
-        <v>232</v>
-      </c>
-      <c r="H31" s="66"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="68"/>
-    </row>
-    <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="27">
-        <v>4</v>
-      </c>
-      <c r="B32" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="52" t="s">
-        <v>240</v>
-      </c>
-      <c r="H32" s="74"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="76"/>
-    </row>
-    <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="27">
-        <v>5</v>
-      </c>
-      <c r="B33" s="51" t="s">
-        <v>245</v>
-      </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="52" t="s">
-        <v>246</v>
-      </c>
-      <c r="H33" s="74"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="76"/>
-    </row>
-    <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="27">
-        <v>6</v>
-      </c>
-      <c r="B34" s="46" t="s">
-        <v>251</v>
-      </c>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="46" t="s">
-        <v>252</v>
-      </c>
-      <c r="H34" s="41"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="43"/>
-    </row>
-    <row r="35" spans="1:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="29">
-        <v>7</v>
-      </c>
-      <c r="B35" s="82" t="s">
-        <v>257</v>
-      </c>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="82" t="s">
-        <v>258</v>
-      </c>
-      <c r="H35" s="84"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="86"/>
-    </row>
-    <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="73"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="73"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="73"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="73"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="73"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="73"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="73"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="73"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="73"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="42"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="73"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="72"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="42"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="73"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="73"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
-    </row>
-    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="73"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="73"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="72"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="42"/>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="73"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="72"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="42"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="73"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="72"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="73"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="46"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="72"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="42"/>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" s="73"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="72"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="42"/>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="73"/>
-      <c r="B54" s="46"/>
-      <c r="C54" s="46"/>
-      <c r="D54" s="46"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="72"/>
-      <c r="H54" s="41"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="42"/>
-    </row>
-    <row r="55" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="73"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="46"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="72"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="42"/>
-    </row>
-    <row r="56" spans="1:20" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:20" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="154" t="s">
-        <v>520</v>
-      </c>
-      <c r="B57" s="154"/>
-      <c r="C57" s="154"/>
-      <c r="D57" s="154"/>
-      <c r="E57" s="154"/>
-      <c r="F57" s="154"/>
-      <c r="G57" s="154"/>
-      <c r="H57" s="154"/>
-      <c r="I57" s="154"/>
-      <c r="J57" s="154"/>
-    </row>
-    <row r="58" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="159" t="s">
-        <v>38</v>
-      </c>
-      <c r="B58" s="159"/>
-      <c r="C58" s="159"/>
-      <c r="D58" s="159"/>
-      <c r="E58" s="159"/>
-      <c r="F58" s="159"/>
-      <c r="G58" s="159"/>
-      <c r="H58" s="159"/>
-      <c r="I58" s="159"/>
-      <c r="J58" s="159"/>
-      <c r="K58" s="77"/>
-      <c r="L58" s="77"/>
-      <c r="M58" s="77"/>
-      <c r="N58" s="77"/>
-      <c r="O58" s="77"/>
-      <c r="P58" s="77"/>
-      <c r="Q58" s="77"/>
-      <c r="R58" s="77"/>
-      <c r="S58" s="77"/>
-      <c r="T58" s="77"/>
-    </row>
-    <row r="59" spans="1:20" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="53" t="s">
-        <v>259</v>
-      </c>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
-    </row>
-    <row r="60" spans="1:20" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="158" t="s">
-        <v>260</v>
-      </c>
-      <c r="B60" s="158"/>
-      <c r="C60" s="158"/>
-      <c r="D60" s="158"/>
-      <c r="E60" s="158"/>
-      <c r="F60" s="158"/>
-      <c r="G60" s="158"/>
-      <c r="H60" s="158"/>
-      <c r="I60" s="158"/>
-      <c r="J60" s="158"/>
-    </row>
-    <row r="61" spans="1:20" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="157" t="s">
-        <v>23</v>
-      </c>
-      <c r="J61" s="157"/>
-      <c r="K61" s="79"/>
-      <c r="L61" s="79"/>
-    </row>
-    <row r="62" spans="1:20" s="19" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="156" t="s">
-        <v>48</v>
-      </c>
-      <c r="J62" s="156"/>
-      <c r="K62" s="78"/>
-      <c r="L62" s="78"/>
-    </row>
-    <row r="63" spans="1:20" s="19" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="137" t="s">
-        <v>210</v>
-      </c>
-      <c r="B63" s="138" t="s">
-        <v>203</v>
-      </c>
-      <c r="C63" s="139" t="s">
-        <v>204</v>
-      </c>
-      <c r="D63" s="138" t="s">
-        <v>205</v>
-      </c>
-      <c r="E63" s="139" t="s">
-        <v>213</v>
-      </c>
-      <c r="F63" s="138" t="s">
-        <v>209</v>
-      </c>
-      <c r="G63" s="152" t="s">
-        <v>206</v>
-      </c>
-      <c r="H63" s="153"/>
-      <c r="I63" s="138" t="s">
-        <v>207</v>
-      </c>
-      <c r="J63" s="140" t="s">
-        <v>208</v>
-      </c>
-      <c r="K63" s="78"/>
-      <c r="L63" s="78"/>
-    </row>
-    <row r="64" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="B64" s="37">
-        <v>1</v>
-      </c>
-      <c r="C64" s="38" t="s">
-        <v>261</v>
-      </c>
-      <c r="D64" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="50" t="s">
-        <v>262</v>
-      </c>
-      <c r="F64" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="G64" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="H64" s="33"/>
-      <c r="I64" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="J64" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="K64" s="69"/>
-    </row>
-    <row r="65" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="34" t="s">
-        <v>269</v>
-      </c>
-      <c r="B65" s="39">
-        <v>2</v>
-      </c>
-      <c r="C65" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="D65" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" s="92"/>
-      <c r="F65" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="G65" s="71" t="s">
-        <v>100</v>
-      </c>
-      <c r="H65" s="71"/>
-      <c r="I65" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="J65" s="35" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B66" s="39">
-        <v>3</v>
-      </c>
-      <c r="C66" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="D66" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="G66" s="71" t="s">
-        <v>97</v>
-      </c>
-      <c r="H66" s="71"/>
-      <c r="I66" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="J66" s="35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="B67" s="39">
-        <v>4</v>
-      </c>
-      <c r="C67" s="40" t="s">
-        <v>272</v>
-      </c>
-      <c r="D67" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="71"/>
-      <c r="F67" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="G67" s="71" t="s">
-        <v>273</v>
-      </c>
-      <c r="H67" s="71"/>
-      <c r="I67" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="J67" s="35" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="34" t="s">
-        <v>277</v>
-      </c>
-      <c r="B68" s="39">
-        <v>5</v>
-      </c>
-      <c r="C68" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="D68" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E68" s="71" t="s">
-        <v>195</v>
-      </c>
-      <c r="F68" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="G68" s="71" t="s">
-        <v>103</v>
-      </c>
-      <c r="H68" s="71"/>
-      <c r="I68" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="J68" s="35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="B69" s="39">
-        <v>6</v>
-      </c>
-      <c r="C69" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="D69" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="71"/>
-      <c r="F69" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="G69" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="H69" s="71"/>
-      <c r="I69" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="J69" s="35" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="34" t="s">
-        <v>282</v>
-      </c>
-      <c r="B70" s="39">
-        <v>7</v>
-      </c>
-      <c r="C70" s="40" t="s">
-        <v>279</v>
-      </c>
-      <c r="D70" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" s="71" t="s">
-        <v>527</v>
-      </c>
-      <c r="F70" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="G70" s="71" t="s">
-        <v>280</v>
-      </c>
-      <c r="H70" s="71"/>
-      <c r="I70" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="J70" s="35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="55">
-        <v>1</v>
-      </c>
-      <c r="B71" s="56" t="s">
-        <v>267</v>
-      </c>
-      <c r="C71" s="56"/>
-      <c r="D71" s="56"/>
-      <c r="E71" s="56"/>
-      <c r="F71" s="57"/>
-      <c r="G71" s="56" t="s">
-        <v>268</v>
-      </c>
-      <c r="H71" s="58"/>
-      <c r="I71" s="58"/>
-      <c r="J71" s="59"/>
-    </row>
-    <row r="72" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="27">
-        <v>2</v>
-      </c>
-      <c r="B72" s="93" t="s">
-        <v>111</v>
-      </c>
-      <c r="C72" s="45"/>
-      <c r="D72" s="45"/>
-      <c r="E72" s="45"/>
-      <c r="F72" s="47"/>
-      <c r="G72" s="45" t="s">
-        <v>270</v>
-      </c>
-      <c r="H72" s="71"/>
-      <c r="I72" s="23"/>
-      <c r="J72" s="24"/>
-    </row>
-    <row r="73" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="27">
-        <v>3</v>
-      </c>
-      <c r="B73" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="49"/>
-      <c r="G73" s="62" t="s">
-        <v>271</v>
-      </c>
-      <c r="H73" s="25"/>
-      <c r="I73" s="26"/>
-      <c r="J73" s="44"/>
-    </row>
-    <row r="74" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="27">
-        <v>4</v>
-      </c>
-      <c r="B74" s="63" t="s">
-        <v>275</v>
-      </c>
-      <c r="C74" s="64"/>
-      <c r="D74" s="64"/>
-      <c r="E74" s="64"/>
-      <c r="F74" s="65"/>
-      <c r="G74" s="64" t="s">
-        <v>276</v>
-      </c>
-      <c r="H74" s="66"/>
-      <c r="I74" s="67"/>
-      <c r="J74" s="68"/>
-    </row>
-    <row r="75" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="27">
-        <v>5</v>
-      </c>
-      <c r="B75" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="C75" s="52"/>
-      <c r="D75" s="52"/>
-      <c r="E75" s="52"/>
-      <c r="F75" s="54"/>
-      <c r="G75" s="52" t="s">
-        <v>278</v>
-      </c>
-      <c r="H75" s="74"/>
-      <c r="I75" s="75"/>
-      <c r="J75" s="76"/>
-    </row>
-    <row r="76" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="144">
-        <v>6</v>
-      </c>
-      <c r="B76" s="145" t="s">
-        <v>108</v>
-      </c>
-      <c r="C76" s="145"/>
-      <c r="D76" s="145"/>
-      <c r="E76" s="145"/>
-      <c r="F76" s="146"/>
-      <c r="G76" s="145" t="s">
-        <v>109</v>
-      </c>
-      <c r="H76" s="147"/>
-      <c r="I76" s="148"/>
-      <c r="J76" s="149"/>
-    </row>
-    <row r="77" spans="1:20" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="143">
-        <v>7</v>
-      </c>
-      <c r="B77" s="116" t="s">
-        <v>283</v>
-      </c>
-      <c r="C77" s="116"/>
-      <c r="D77" s="116"/>
-      <c r="E77" s="116"/>
-      <c r="F77" s="117"/>
-      <c r="G77" s="116" t="s">
-        <v>284</v>
-      </c>
-      <c r="H77" s="118"/>
-      <c r="I77" s="119"/>
-      <c r="J77" s="120"/>
-    </row>
-    <row r="78" spans="1:20" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:20" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="154" t="s">
-        <v>521</v>
-      </c>
-      <c r="B79" s="154"/>
-      <c r="C79" s="154"/>
-      <c r="D79" s="154"/>
-      <c r="E79" s="154"/>
-      <c r="F79" s="154"/>
-      <c r="G79" s="154"/>
-      <c r="H79" s="154"/>
-      <c r="I79" s="154"/>
-      <c r="J79" s="154"/>
-    </row>
-    <row r="80" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="155" t="s">
-        <v>285</v>
-      </c>
-      <c r="B80" s="155"/>
-      <c r="C80" s="155"/>
-      <c r="D80" s="155"/>
-      <c r="E80" s="155"/>
-      <c r="F80" s="155"/>
-      <c r="G80" s="155"/>
-      <c r="H80" s="155"/>
-      <c r="I80" s="155"/>
-      <c r="J80" s="155"/>
-      <c r="K80" s="77"/>
-      <c r="L80" s="77"/>
-      <c r="M80" s="77"/>
-      <c r="N80" s="77"/>
-      <c r="O80" s="77"/>
-      <c r="P80" s="77"/>
-      <c r="Q80" s="77"/>
-      <c r="R80" s="77"/>
-      <c r="S80" s="77"/>
-      <c r="T80" s="77"/>
-    </row>
-    <row r="81" spans="1:12" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="53" t="s">
-        <v>286</v>
-      </c>
-      <c r="B81" s="20"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="22"/>
-      <c r="I81" s="22"/>
-      <c r="J81" s="22"/>
-    </row>
-    <row r="82" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="B82" s="17"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="H82" s="21"/>
-      <c r="I82" s="157" t="s">
-        <v>58</v>
-      </c>
-      <c r="J82" s="157"/>
-      <c r="K82" s="79"/>
-      <c r="L82" s="79"/>
-    </row>
-    <row r="83" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="H83" s="21"/>
-      <c r="I83" s="156" t="s">
-        <v>288</v>
-      </c>
-      <c r="J83" s="156"/>
-      <c r="K83" s="78"/>
-      <c r="L83" s="78"/>
-    </row>
-    <row r="84" spans="1:12" s="19" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="137" t="s">
-        <v>210</v>
-      </c>
-      <c r="B84" s="138" t="s">
-        <v>203</v>
-      </c>
-      <c r="C84" s="139" t="s">
-        <v>204</v>
-      </c>
-      <c r="D84" s="138" t="s">
-        <v>205</v>
-      </c>
-      <c r="E84" s="139" t="s">
-        <v>213</v>
-      </c>
-      <c r="F84" s="138" t="s">
-        <v>209</v>
-      </c>
-      <c r="G84" s="152" t="s">
-        <v>206</v>
-      </c>
-      <c r="H84" s="153"/>
-      <c r="I84" s="138" t="s">
-        <v>207</v>
-      </c>
-      <c r="J84" s="140" t="s">
-        <v>208</v>
-      </c>
-      <c r="K84" s="78"/>
-      <c r="L84" s="78"/>
-    </row>
-    <row r="85" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="34" t="s">
-        <v>293</v>
-      </c>
-      <c r="B85" s="39">
-        <v>1</v>
-      </c>
-      <c r="C85" s="40" t="s">
-        <v>289</v>
-      </c>
-      <c r="D85" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E85" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="F85" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" s="71" t="s">
-        <v>290</v>
-      </c>
-      <c r="H85" s="71"/>
-      <c r="I85" s="35" t="s">
-        <v>291</v>
-      </c>
-      <c r="J85" s="35" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="34" t="s">
-        <v>297</v>
-      </c>
-      <c r="B86" s="39">
-        <v>2</v>
-      </c>
-      <c r="C86" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D86" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E86" s="71" t="s">
-        <v>202</v>
-      </c>
-      <c r="F86" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="H86" s="71"/>
-      <c r="I86" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="J86" s="35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="B87" s="39">
-        <v>3</v>
-      </c>
-      <c r="C87" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="D87" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E87" s="71"/>
-      <c r="F87" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="H87" s="71"/>
-      <c r="I87" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="J87" s="35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="34" t="s">
-        <v>303</v>
-      </c>
-      <c r="B88" s="39">
-        <v>4</v>
-      </c>
-      <c r="C88" s="40" t="s">
-        <v>301</v>
-      </c>
-      <c r="D88" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E88" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="F88" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88" s="71" t="s">
-        <v>302</v>
-      </c>
-      <c r="H88" s="71"/>
-      <c r="I88" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="J88" s="35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="34" t="s">
-        <v>309</v>
-      </c>
-      <c r="B89" s="39">
-        <v>5</v>
-      </c>
-      <c r="C89" s="40" t="s">
-        <v>306</v>
-      </c>
-      <c r="D89" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E89" s="71" t="s">
-        <v>84</v>
-      </c>
-      <c r="F89" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" s="71" t="s">
-        <v>307</v>
-      </c>
-      <c r="H89" s="71"/>
-      <c r="I89" s="35" t="s">
-        <v>308</v>
-      </c>
-      <c r="J89" s="35" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="B90" s="39">
-        <v>6</v>
-      </c>
-      <c r="C90" s="40" t="s">
-        <v>312</v>
-      </c>
-      <c r="D90" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E90" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="F90" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" s="71" t="s">
-        <v>313</v>
-      </c>
-      <c r="H90" s="71"/>
-      <c r="I90" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="J90" s="35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="34" t="s">
-        <v>320</v>
-      </c>
-      <c r="B91" s="39">
-        <v>7</v>
-      </c>
-      <c r="C91" s="40" t="s">
-        <v>317</v>
-      </c>
-      <c r="D91" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E91" s="71" t="s">
-        <v>212</v>
-      </c>
-      <c r="F91" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="G91" s="71" t="s">
-        <v>318</v>
-      </c>
-      <c r="H91" s="71"/>
-      <c r="I91" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="J91" s="35" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="34" t="s">
-        <v>327</v>
-      </c>
-      <c r="B92" s="39">
-        <v>8</v>
-      </c>
-      <c r="C92" s="40" t="s">
-        <v>323</v>
-      </c>
-      <c r="D92" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E92" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="F92" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="G92" s="71" t="s">
-        <v>324</v>
-      </c>
-      <c r="H92" s="71"/>
-      <c r="I92" s="35" t="s">
-        <v>325</v>
-      </c>
-      <c r="J92" s="35" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="34" t="s">
-        <v>330</v>
-      </c>
-      <c r="B93" s="39">
-        <v>9</v>
-      </c>
-      <c r="C93" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="D93" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E93" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="F93" s="36" t="s">
-        <v>331</v>
-      </c>
-      <c r="G93" s="71" t="s">
-        <v>80</v>
-      </c>
-      <c r="H93" s="71"/>
-      <c r="I93" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="J93" s="35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="55">
-        <v>1</v>
-      </c>
-      <c r="B94" s="107" t="s">
-        <v>294</v>
-      </c>
-      <c r="C94" s="108"/>
-      <c r="D94" s="108"/>
-      <c r="E94" s="108"/>
-      <c r="F94" s="109"/>
-      <c r="G94" s="108" t="s">
-        <v>295</v>
-      </c>
-      <c r="H94" s="115"/>
-      <c r="I94" s="110"/>
-      <c r="J94" s="111"/>
-    </row>
-    <row r="95" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="27">
-        <v>2</v>
-      </c>
-      <c r="B95" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="C95" s="64"/>
-      <c r="D95" s="64"/>
-      <c r="E95" s="64"/>
-      <c r="F95" s="65"/>
-      <c r="G95" s="64" t="s">
-        <v>298</v>
-      </c>
-      <c r="H95" s="66"/>
-      <c r="I95" s="67"/>
-      <c r="J95" s="68"/>
-    </row>
-    <row r="96" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="27">
-        <v>3</v>
-      </c>
-      <c r="B96" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="C96" s="64"/>
-      <c r="D96" s="64"/>
-      <c r="E96" s="64"/>
-      <c r="F96" s="65"/>
-      <c r="G96" s="64" t="s">
-        <v>300</v>
-      </c>
-      <c r="H96" s="66"/>
-      <c r="I96" s="67"/>
-      <c r="J96" s="68"/>
-    </row>
-    <row r="97" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="27">
-        <v>4</v>
-      </c>
-      <c r="B97" s="51" t="s">
-        <v>304</v>
-      </c>
-      <c r="C97" s="52"/>
-      <c r="D97" s="52"/>
-      <c r="E97" s="52"/>
-      <c r="F97" s="54"/>
-      <c r="G97" s="52" t="s">
-        <v>305</v>
-      </c>
-      <c r="H97" s="74"/>
-      <c r="I97" s="75"/>
-      <c r="J97" s="76"/>
-    </row>
-    <row r="98" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="27">
-        <v>5</v>
-      </c>
-      <c r="B98" s="51" t="s">
-        <v>310</v>
-      </c>
-      <c r="C98" s="52"/>
-      <c r="D98" s="52"/>
-      <c r="E98" s="52"/>
-      <c r="F98" s="54"/>
-      <c r="G98" s="52" t="s">
-        <v>311</v>
-      </c>
-      <c r="H98" s="74"/>
-      <c r="I98" s="75"/>
-      <c r="J98" s="76"/>
-    </row>
-    <row r="99" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="27">
-        <v>6</v>
-      </c>
-      <c r="B99" s="46" t="s">
-        <v>315</v>
-      </c>
-      <c r="C99" s="46"/>
-      <c r="D99" s="46"/>
-      <c r="E99" s="46"/>
-      <c r="F99" s="48"/>
-      <c r="G99" s="46" t="s">
-        <v>316</v>
-      </c>
-      <c r="H99" s="41"/>
-      <c r="I99" s="42"/>
-      <c r="J99" s="43"/>
-    </row>
-    <row r="100" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="27">
-        <v>7</v>
-      </c>
-      <c r="B100" s="51" t="s">
-        <v>321</v>
-      </c>
-      <c r="C100" s="52"/>
-      <c r="D100" s="52"/>
-      <c r="E100" s="52"/>
-      <c r="F100" s="54"/>
-      <c r="G100" s="52" t="s">
-        <v>322</v>
-      </c>
-      <c r="H100" s="74"/>
-      <c r="I100" s="75"/>
-      <c r="J100" s="76"/>
-    </row>
-    <row r="101" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="27">
-        <v>8</v>
-      </c>
-      <c r="B101" s="51" t="s">
-        <v>328</v>
-      </c>
-      <c r="C101" s="52"/>
-      <c r="D101" s="52"/>
-      <c r="E101" s="52"/>
-      <c r="F101" s="54"/>
-      <c r="G101" s="52" t="s">
-        <v>329</v>
-      </c>
-      <c r="H101" s="74"/>
-      <c r="I101" s="75"/>
-      <c r="J101" s="76"/>
-    </row>
-    <row r="102" spans="1:20" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="29">
-        <v>9</v>
-      </c>
-      <c r="B102" s="116" t="s">
-        <v>82</v>
-      </c>
-      <c r="C102" s="116"/>
-      <c r="D102" s="116"/>
-      <c r="E102" s="116"/>
-      <c r="F102" s="117"/>
-      <c r="G102" s="116" t="s">
-        <v>332</v>
-      </c>
-      <c r="H102" s="118"/>
-      <c r="I102" s="119"/>
-      <c r="J102" s="120"/>
-    </row>
-    <row r="103" spans="1:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" spans="1:20" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="154" t="s">
-        <v>522</v>
-      </c>
-      <c r="B104" s="154"/>
-      <c r="C104" s="154"/>
-      <c r="D104" s="154"/>
-      <c r="E104" s="154"/>
-      <c r="F104" s="154"/>
-      <c r="G104" s="154"/>
-      <c r="H104" s="154"/>
-      <c r="I104" s="154"/>
-      <c r="J104" s="154"/>
-    </row>
-    <row r="105" spans="1:20" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="155" t="s">
-        <v>285</v>
-      </c>
-      <c r="B105" s="155"/>
-      <c r="C105" s="155"/>
-      <c r="D105" s="155"/>
-      <c r="E105" s="155"/>
-      <c r="F105" s="155"/>
-      <c r="G105" s="155"/>
-      <c r="H105" s="155"/>
-      <c r="I105" s="155"/>
-      <c r="J105" s="155"/>
-      <c r="K105" s="77"/>
-      <c r="L105" s="77"/>
-      <c r="M105" s="77"/>
-      <c r="N105" s="77"/>
-      <c r="O105" s="77"/>
-      <c r="P105" s="77"/>
-      <c r="Q105" s="77"/>
-      <c r="R105" s="77"/>
-      <c r="S105" s="77"/>
-      <c r="T105" s="77"/>
-    </row>
-    <row r="106" spans="1:20" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="B106" s="20"/>
-      <c r="C106" s="20"/>
-      <c r="D106" s="20"/>
-      <c r="E106" s="20"/>
-      <c r="F106" s="20"/>
-      <c r="G106" s="20"/>
-      <c r="H106" s="22"/>
-      <c r="I106" s="22"/>
-      <c r="J106" s="22"/>
-    </row>
-    <row r="107" spans="1:20" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="B107" s="17"/>
-      <c r="C107" s="17"/>
-      <c r="D107" s="17"/>
-      <c r="E107" s="17"/>
-      <c r="F107" s="17"/>
-      <c r="H107" s="21"/>
-      <c r="I107" s="157" t="s">
-        <v>59</v>
-      </c>
-      <c r="J107" s="157"/>
-      <c r="K107" s="79"/>
-      <c r="L107" s="79"/>
-    </row>
-    <row r="108" spans="1:20" s="19" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B108" s="17"/>
-      <c r="C108" s="17"/>
-      <c r="D108" s="17"/>
-      <c r="E108" s="17"/>
-      <c r="F108" s="17"/>
-      <c r="H108" s="21"/>
-      <c r="I108" s="156" t="s">
-        <v>333</v>
-      </c>
-      <c r="J108" s="156"/>
-      <c r="K108" s="78"/>
-      <c r="L108" s="78"/>
-    </row>
-    <row r="109" spans="1:20" s="19" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="137" t="s">
-        <v>210</v>
-      </c>
-      <c r="B109" s="138" t="s">
-        <v>203</v>
-      </c>
-      <c r="C109" s="139" t="s">
-        <v>204</v>
-      </c>
-      <c r="D109" s="138" t="s">
-        <v>205</v>
-      </c>
-      <c r="E109" s="139" t="s">
-        <v>213</v>
-      </c>
-      <c r="F109" s="138" t="s">
-        <v>209</v>
-      </c>
-      <c r="G109" s="152" t="s">
-        <v>206</v>
-      </c>
-      <c r="H109" s="153"/>
-      <c r="I109" s="138" t="s">
-        <v>207</v>
-      </c>
-      <c r="J109" s="140" t="s">
-        <v>208</v>
-      </c>
-      <c r="K109" s="78"/>
-      <c r="L109" s="78"/>
-    </row>
-    <row r="110" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="100" t="s">
-        <v>336</v>
-      </c>
-      <c r="B110" s="37">
-        <v>1</v>
-      </c>
-      <c r="C110" s="38" t="s">
-        <v>334</v>
-      </c>
-      <c r="D110" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E110" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="F110" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="H110" s="33"/>
-      <c r="I110" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="J110" s="31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="111" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="34" t="s">
-        <v>339</v>
-      </c>
-      <c r="B111" s="39">
-        <v>2</v>
-      </c>
-      <c r="C111" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D111" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E111" s="71"/>
-      <c r="F111" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="H111" s="71"/>
-      <c r="I111" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="J111" s="35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="112" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B112" s="39">
-        <v>3</v>
-      </c>
-      <c r="C112" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="D112" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E112" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="F112" s="36" t="s">
-        <v>331</v>
-      </c>
-      <c r="G112" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="H112" s="71"/>
-      <c r="I112" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="J112" s="35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="34" t="s">
-        <v>345</v>
-      </c>
-      <c r="B113" s="39">
-        <v>4</v>
-      </c>
-      <c r="C113" s="40" t="s">
-        <v>341</v>
-      </c>
-      <c r="D113" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E113" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="F113" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G113" s="71" t="s">
-        <v>342</v>
-      </c>
-      <c r="H113" s="71"/>
-      <c r="I113" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="J113" s="35" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="34" t="s">
-        <v>351</v>
-      </c>
-      <c r="B114" s="39">
-        <v>5</v>
-      </c>
-      <c r="C114" s="40" t="s">
-        <v>348</v>
-      </c>
-      <c r="D114" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E114" s="71"/>
-      <c r="F114" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G114" s="71" t="s">
-        <v>349</v>
-      </c>
-      <c r="H114" s="71"/>
-      <c r="I114" s="35" t="s">
-        <v>350</v>
-      </c>
-      <c r="J114" s="35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="34" t="s">
-        <v>356</v>
-      </c>
-      <c r="B115" s="39">
-        <v>6</v>
-      </c>
-      <c r="C115" s="40" t="s">
-        <v>354</v>
-      </c>
-      <c r="D115" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E115" s="71" t="s">
-        <v>199</v>
-      </c>
-      <c r="F115" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G115" s="71" t="s">
-        <v>355</v>
-      </c>
-      <c r="H115" s="71"/>
-      <c r="I115" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="J115" s="35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="34" t="s">
-        <v>363</v>
-      </c>
-      <c r="B116" s="39">
-        <v>7</v>
-      </c>
-      <c r="C116" s="40" t="s">
-        <v>360</v>
-      </c>
-      <c r="D116" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E116" s="71"/>
-      <c r="F116" s="36" t="s">
-        <v>331</v>
-      </c>
-      <c r="G116" s="71" t="s">
-        <v>361</v>
-      </c>
-      <c r="H116" s="71"/>
-      <c r="I116" s="35" t="s">
-        <v>362</v>
-      </c>
-      <c r="J116" s="35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="34" t="s">
-        <v>370</v>
-      </c>
-      <c r="B117" s="39">
-        <v>8</v>
-      </c>
-      <c r="C117" s="40" t="s">
-        <v>366</v>
-      </c>
-      <c r="D117" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E117" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="F117" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G117" s="71" t="s">
-        <v>367</v>
-      </c>
-      <c r="H117" s="71"/>
-      <c r="I117" s="35" t="s">
-        <v>368</v>
-      </c>
-      <c r="J117" s="35" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="87" t="s">
-        <v>375</v>
-      </c>
-      <c r="B118" s="88">
-        <v>9</v>
-      </c>
-      <c r="C118" s="89" t="s">
-        <v>373</v>
-      </c>
-      <c r="D118" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="E118" s="84" t="s">
-        <v>60</v>
-      </c>
-      <c r="F118" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="G118" s="84" t="s">
-        <v>374</v>
-      </c>
-      <c r="H118" s="84"/>
-      <c r="I118" s="90" t="s">
-        <v>28</v>
-      </c>
-      <c r="J118" s="90" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="27">
-        <v>1</v>
-      </c>
-      <c r="B119" s="62" t="s">
-        <v>337</v>
-      </c>
-      <c r="C119" s="28"/>
-      <c r="D119" s="28"/>
-      <c r="E119" s="28"/>
-      <c r="F119" s="49"/>
-      <c r="G119" s="62" t="s">
-        <v>338</v>
-      </c>
-      <c r="H119" s="25"/>
-      <c r="I119" s="26"/>
-      <c r="J119" s="44"/>
-    </row>
-    <row r="120" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="27">
-        <v>2</v>
-      </c>
-      <c r="B120" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="C120" s="64"/>
-      <c r="D120" s="64"/>
-      <c r="E120" s="64"/>
-      <c r="F120" s="65"/>
-      <c r="G120" s="64" t="s">
-        <v>340</v>
-      </c>
-      <c r="H120" s="66"/>
-      <c r="I120" s="67"/>
-      <c r="J120" s="68"/>
-    </row>
-    <row r="121" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="27">
-        <v>3</v>
-      </c>
-      <c r="B121" s="94" t="s">
-        <v>55</v>
-      </c>
-      <c r="C121" s="95"/>
-      <c r="D121" s="95"/>
-      <c r="E121" s="95"/>
-      <c r="F121" s="96"/>
-      <c r="G121" s="95" t="s">
-        <v>68</v>
-      </c>
-      <c r="H121" s="97"/>
-      <c r="I121" s="98"/>
-      <c r="J121" s="99"/>
-    </row>
-    <row r="122" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="27">
-        <v>4</v>
-      </c>
-      <c r="B122" s="46" t="s">
-        <v>346</v>
-      </c>
-      <c r="C122" s="46"/>
-      <c r="D122" s="46"/>
-      <c r="E122" s="46"/>
-      <c r="F122" s="48"/>
-      <c r="G122" s="46" t="s">
-        <v>347</v>
-      </c>
-      <c r="H122" s="41"/>
-      <c r="I122" s="42"/>
-      <c r="J122" s="43"/>
-    </row>
-    <row r="123" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="27">
-        <v>5</v>
-      </c>
-      <c r="B123" s="51" t="s">
-        <v>352</v>
-      </c>
-      <c r="C123" s="52"/>
-      <c r="D123" s="52"/>
-      <c r="E123" s="52"/>
-      <c r="F123" s="54"/>
-      <c r="G123" s="52" t="s">
-        <v>353</v>
-      </c>
-      <c r="H123" s="74"/>
-      <c r="I123" s="75"/>
-      <c r="J123" s="76"/>
-    </row>
-    <row r="124" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="27">
-        <v>6</v>
-      </c>
-      <c r="B124" s="46" t="s">
-        <v>358</v>
-      </c>
-      <c r="C124" s="46"/>
-      <c r="D124" s="46"/>
-      <c r="E124" s="46"/>
-      <c r="F124" s="48"/>
-      <c r="G124" s="46" t="s">
-        <v>359</v>
-      </c>
-      <c r="H124" s="41"/>
-      <c r="I124" s="42"/>
-      <c r="J124" s="43"/>
-    </row>
-    <row r="125" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="27">
-        <v>7</v>
-      </c>
-      <c r="B125" s="51" t="s">
-        <v>364</v>
-      </c>
-      <c r="C125" s="52"/>
-      <c r="D125" s="52"/>
-      <c r="E125" s="52"/>
-      <c r="F125" s="54"/>
-      <c r="G125" s="52" t="s">
-        <v>365</v>
-      </c>
-      <c r="H125" s="74"/>
-      <c r="I125" s="75"/>
-      <c r="J125" s="76"/>
-    </row>
-    <row r="126" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="27">
-        <v>8</v>
-      </c>
-      <c r="B126" s="46" t="s">
-        <v>371</v>
-      </c>
-      <c r="C126" s="46"/>
-      <c r="D126" s="46"/>
-      <c r="E126" s="46"/>
-      <c r="F126" s="48"/>
-      <c r="G126" s="46" t="s">
-        <v>372</v>
-      </c>
-      <c r="H126" s="41"/>
-      <c r="I126" s="42"/>
-      <c r="J126" s="43"/>
-    </row>
-    <row r="127" spans="1:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="29">
-        <v>9</v>
-      </c>
-      <c r="B127" s="82" t="s">
-        <v>376</v>
-      </c>
-      <c r="C127" s="82"/>
-      <c r="D127" s="82"/>
-      <c r="E127" s="82"/>
-      <c r="F127" s="83"/>
-      <c r="G127" s="82" t="s">
-        <v>377</v>
-      </c>
-      <c r="H127" s="84"/>
-      <c r="I127" s="85"/>
-      <c r="J127" s="86"/>
-    </row>
-    <row r="129" spans="1:20" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="154" t="s">
-        <v>523</v>
-      </c>
-      <c r="B129" s="154"/>
-      <c r="C129" s="154"/>
-      <c r="D129" s="154"/>
-      <c r="E129" s="154"/>
-      <c r="F129" s="154"/>
-      <c r="G129" s="154"/>
-      <c r="H129" s="154"/>
-      <c r="I129" s="154"/>
-      <c r="J129" s="154"/>
-    </row>
-    <row r="130" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="155" t="s">
-        <v>21</v>
-      </c>
-      <c r="B130" s="155"/>
-      <c r="C130" s="155"/>
-      <c r="D130" s="155"/>
-      <c r="E130" s="155"/>
-      <c r="F130" s="155"/>
-      <c r="G130" s="155"/>
-      <c r="H130" s="155"/>
-      <c r="I130" s="155"/>
-      <c r="J130" s="155"/>
-      <c r="K130" s="77"/>
-      <c r="L130" s="77"/>
-      <c r="M130" s="77"/>
-      <c r="N130" s="77"/>
-      <c r="O130" s="77"/>
-      <c r="P130" s="77"/>
-      <c r="Q130" s="77"/>
-      <c r="R130" s="77"/>
-      <c r="S130" s="77"/>
-      <c r="T130" s="77"/>
-    </row>
-    <row r="131" spans="1:20" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="53" t="s">
-        <v>378</v>
-      </c>
-      <c r="B131" s="20"/>
-      <c r="C131" s="20"/>
-      <c r="D131" s="20"/>
-      <c r="E131" s="20"/>
-      <c r="F131" s="20"/>
-      <c r="G131" s="20"/>
-      <c r="H131" s="22"/>
-      <c r="I131" s="22"/>
-      <c r="J131" s="22"/>
-    </row>
-    <row r="132" spans="1:20" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="53" t="s">
-        <v>379</v>
-      </c>
-      <c r="B132" s="20"/>
-      <c r="C132" s="20"/>
-      <c r="D132" s="20"/>
-      <c r="E132" s="20"/>
-      <c r="F132" s="20"/>
-      <c r="G132" s="20"/>
-      <c r="H132" s="22"/>
-      <c r="I132" s="22"/>
-      <c r="J132" s="22"/>
-    </row>
-    <row r="133" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="B133" s="17"/>
-      <c r="C133" s="17"/>
-      <c r="D133" s="17"/>
-      <c r="E133" s="17"/>
-      <c r="F133" s="17"/>
-      <c r="H133" s="21"/>
-      <c r="I133" s="157" t="s">
-        <v>86</v>
-      </c>
-      <c r="J133" s="157"/>
-      <c r="K133" s="79"/>
-      <c r="L133" s="79"/>
-    </row>
-    <row r="134" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="B134" s="17"/>
-      <c r="C134" s="17"/>
-      <c r="D134" s="17"/>
-      <c r="E134" s="17"/>
-      <c r="F134" s="17"/>
-      <c r="H134" s="21"/>
-      <c r="I134" s="156" t="s">
-        <v>88</v>
-      </c>
-      <c r="J134" s="156"/>
-      <c r="K134" s="78"/>
-      <c r="L134" s="78"/>
-    </row>
-    <row r="135" spans="1:20" s="19" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="137" t="s">
-        <v>210</v>
-      </c>
-      <c r="B135" s="138" t="s">
-        <v>203</v>
-      </c>
-      <c r="C135" s="139" t="s">
-        <v>204</v>
-      </c>
-      <c r="D135" s="138" t="s">
-        <v>205</v>
-      </c>
-      <c r="E135" s="139" t="s">
-        <v>213</v>
-      </c>
-      <c r="F135" s="138" t="s">
-        <v>209</v>
-      </c>
-      <c r="G135" s="152" t="s">
-        <v>206</v>
-      </c>
-      <c r="H135" s="153"/>
-      <c r="I135" s="138" t="s">
-        <v>207</v>
-      </c>
-      <c r="J135" s="140" t="s">
-        <v>208</v>
-      </c>
-      <c r="K135" s="78"/>
-      <c r="L135" s="78"/>
-    </row>
-    <row r="136" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="30" t="s">
-        <v>380</v>
-      </c>
-      <c r="B136" s="37">
-        <v>1</v>
-      </c>
-      <c r="C136" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="D136" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E136" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="F136" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="G136" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="H136" s="33"/>
-      <c r="I136" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="J136" s="31" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="137" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="34" t="s">
-        <v>382</v>
-      </c>
-      <c r="B137" s="39">
-        <v>2</v>
-      </c>
-      <c r="C137" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="D137" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E137" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="F137" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="G137" s="71" t="s">
-        <v>129</v>
-      </c>
-      <c r="H137" s="71"/>
-      <c r="I137" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="J137" s="35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="138" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="34" t="s">
-        <v>387</v>
-      </c>
-      <c r="B138" s="39">
-        <v>3</v>
-      </c>
-      <c r="C138" s="40" t="s">
-        <v>384</v>
-      </c>
-      <c r="D138" s="35" t="s">
-        <v>385</v>
-      </c>
-      <c r="E138" s="71" t="s">
-        <v>527</v>
-      </c>
-      <c r="F138" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="G138" s="71" t="s">
-        <v>386</v>
-      </c>
-      <c r="H138" s="71"/>
-      <c r="I138" s="35" t="s">
-        <v>325</v>
-      </c>
-      <c r="J138" s="35" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="139" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="34" t="s">
-        <v>392</v>
-      </c>
-      <c r="B139" s="39">
-        <v>4</v>
-      </c>
-      <c r="C139" s="40" t="s">
-        <v>390</v>
-      </c>
-      <c r="D139" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E139" s="71" t="s">
-        <v>195</v>
-      </c>
-      <c r="F139" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="G139" s="71" t="s">
-        <v>391</v>
-      </c>
-      <c r="H139" s="71"/>
-      <c r="I139" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="J139" s="35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="140" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="34" t="s">
-        <v>397</v>
-      </c>
-      <c r="B140" s="39">
-        <v>5</v>
-      </c>
-      <c r="C140" s="40" t="s">
-        <v>395</v>
-      </c>
-      <c r="D140" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E140" s="71"/>
-      <c r="F140" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="G140" s="71" t="s">
-        <v>396</v>
-      </c>
-      <c r="H140" s="71"/>
-      <c r="I140" s="35" t="s">
-        <v>398</v>
-      </c>
-      <c r="J140" s="35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="141" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="34" t="s">
-        <v>403</v>
-      </c>
-      <c r="B141" s="39">
-        <v>6</v>
-      </c>
-      <c r="C141" s="40" t="s">
-        <v>401</v>
-      </c>
-      <c r="D141" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E141" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="F141" s="36" t="s">
-        <v>411</v>
-      </c>
-      <c r="G141" s="71" t="s">
-        <v>402</v>
-      </c>
-      <c r="H141" s="71"/>
-      <c r="I141" s="35" t="s">
-        <v>368</v>
-      </c>
-      <c r="J141" s="35" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="142" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="87" t="s">
-        <v>410</v>
-      </c>
-      <c r="B142" s="88">
-        <v>7</v>
-      </c>
-      <c r="C142" s="89" t="s">
-        <v>406</v>
-      </c>
-      <c r="D142" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="E142" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="F142" s="91" t="s">
-        <v>411</v>
-      </c>
-      <c r="G142" s="84" t="s">
-        <v>407</v>
-      </c>
-      <c r="H142" s="84"/>
-      <c r="I142" s="90" t="s">
-        <v>408</v>
-      </c>
-      <c r="J142" s="90" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="143" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="27">
-        <v>1</v>
-      </c>
-      <c r="B143" s="62" t="s">
-        <v>189</v>
-      </c>
-      <c r="C143" s="28"/>
-      <c r="D143" s="28"/>
-      <c r="E143" s="28"/>
-      <c r="F143" s="49"/>
-      <c r="G143" s="62" t="s">
-        <v>381</v>
-      </c>
-      <c r="H143" s="25"/>
-      <c r="I143" s="26"/>
-      <c r="J143" s="44"/>
-    </row>
-    <row r="144" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="27">
-        <v>2</v>
-      </c>
-      <c r="B144" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="C144" s="64"/>
-      <c r="D144" s="64"/>
-      <c r="E144" s="64"/>
-      <c r="F144" s="65"/>
-      <c r="G144" s="64" t="s">
-        <v>383</v>
-      </c>
-      <c r="H144" s="66"/>
-      <c r="I144" s="67"/>
-      <c r="J144" s="68"/>
-    </row>
-    <row r="145" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="27">
-        <v>3</v>
-      </c>
-      <c r="B145" s="46" t="s">
-        <v>388</v>
-      </c>
-      <c r="C145" s="46"/>
-      <c r="D145" s="46"/>
-      <c r="E145" s="46"/>
-      <c r="F145" s="48"/>
-      <c r="G145" s="46" t="s">
-        <v>389</v>
-      </c>
-      <c r="H145" s="41"/>
-      <c r="I145" s="42"/>
-      <c r="J145" s="43"/>
-    </row>
-    <row r="146" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="27">
-        <v>4</v>
-      </c>
-      <c r="B146" s="63" t="s">
-        <v>393</v>
-      </c>
-      <c r="C146" s="64"/>
-      <c r="D146" s="64"/>
-      <c r="E146" s="64"/>
-      <c r="F146" s="65"/>
-      <c r="G146" s="64" t="s">
-        <v>394</v>
-      </c>
-      <c r="H146" s="66"/>
-      <c r="I146" s="67"/>
-      <c r="J146" s="68"/>
-    </row>
-    <row r="147" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="27">
-        <v>5</v>
-      </c>
-      <c r="B147" s="46" t="s">
-        <v>399</v>
-      </c>
-      <c r="C147" s="46"/>
-      <c r="D147" s="46"/>
-      <c r="E147" s="46"/>
-      <c r="F147" s="48"/>
-      <c r="G147" s="46" t="s">
-        <v>400</v>
-      </c>
-      <c r="H147" s="41"/>
-      <c r="I147" s="42"/>
-      <c r="J147" s="43"/>
-    </row>
-    <row r="148" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="27">
-        <v>6</v>
-      </c>
-      <c r="B148" s="51" t="s">
-        <v>404</v>
-      </c>
-      <c r="C148" s="52"/>
-      <c r="D148" s="52"/>
-      <c r="E148" s="52"/>
-      <c r="F148" s="54"/>
-      <c r="G148" s="52" t="s">
-        <v>405</v>
-      </c>
-      <c r="H148" s="74"/>
-      <c r="I148" s="75"/>
-      <c r="J148" s="76"/>
-    </row>
-    <row r="149" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="29">
-        <v>7</v>
-      </c>
-      <c r="B149" s="82" t="s">
-        <v>412</v>
-      </c>
-      <c r="C149" s="82"/>
-      <c r="D149" s="82"/>
-      <c r="E149" s="82"/>
-      <c r="F149" s="83"/>
-      <c r="G149" s="82" t="s">
-        <v>413</v>
-      </c>
-      <c r="H149" s="84"/>
-      <c r="I149" s="85"/>
-      <c r="J149" s="86"/>
-    </row>
-    <row r="151" spans="1:20" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="160" t="s">
-        <v>524</v>
-      </c>
-      <c r="B151" s="160"/>
-      <c r="C151" s="160"/>
-      <c r="D151" s="160"/>
-      <c r="E151" s="160"/>
-      <c r="F151" s="160"/>
-      <c r="G151" s="160"/>
-      <c r="H151" s="160"/>
-      <c r="I151" s="160"/>
-      <c r="J151" s="160"/>
-    </row>
-    <row r="152" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="155" t="s">
-        <v>21</v>
-      </c>
-      <c r="B152" s="155"/>
-      <c r="C152" s="155"/>
-      <c r="D152" s="155"/>
-      <c r="E152" s="155"/>
-      <c r="F152" s="155"/>
-      <c r="G152" s="155"/>
-      <c r="H152" s="155"/>
-      <c r="I152" s="155"/>
-      <c r="J152" s="155"/>
-      <c r="K152" s="77"/>
-      <c r="L152" s="77"/>
-      <c r="M152" s="77"/>
-      <c r="N152" s="77"/>
-      <c r="O152" s="77"/>
-      <c r="P152" s="77"/>
-      <c r="Q152" s="77"/>
-      <c r="R152" s="77"/>
-      <c r="S152" s="77"/>
-      <c r="T152" s="77"/>
-    </row>
-    <row r="153" spans="1:20" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="53" t="s">
-        <v>528</v>
-      </c>
-      <c r="B153" s="20"/>
-      <c r="C153" s="20"/>
-      <c r="D153" s="20"/>
-      <c r="E153" s="20"/>
-      <c r="F153" s="20"/>
-      <c r="G153" s="20"/>
-      <c r="H153" s="22"/>
-      <c r="I153" s="22"/>
-      <c r="J153" s="22"/>
-    </row>
-    <row r="154" spans="1:20" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="53" t="s">
-        <v>529</v>
-      </c>
-      <c r="B154" s="20"/>
-      <c r="C154" s="20"/>
-      <c r="D154" s="20"/>
-      <c r="E154" s="20"/>
-      <c r="F154" s="20"/>
-      <c r="G154" s="20"/>
-      <c r="H154" s="22"/>
-      <c r="I154" s="22"/>
-      <c r="J154" s="22"/>
-    </row>
-    <row r="155" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B155" s="17"/>
-      <c r="C155" s="17"/>
-      <c r="D155" s="17"/>
-      <c r="E155" s="17"/>
-      <c r="F155" s="17"/>
-      <c r="H155" s="21"/>
-      <c r="I155" s="157" t="s">
-        <v>23</v>
-      </c>
-      <c r="J155" s="157"/>
-      <c r="K155" s="79"/>
-      <c r="L155" s="79"/>
-    </row>
-    <row r="156" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B156" s="17"/>
-      <c r="C156" s="17"/>
-      <c r="D156" s="17"/>
-      <c r="E156" s="17"/>
-      <c r="F156" s="17"/>
-      <c r="H156" s="21"/>
-      <c r="I156" s="151" t="s">
-        <v>113</v>
-      </c>
-      <c r="J156" s="151"/>
-      <c r="K156" s="78"/>
-      <c r="L156" s="78"/>
-    </row>
-    <row r="157" spans="1:20" s="19" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="137" t="s">
-        <v>210</v>
-      </c>
-      <c r="B157" s="138" t="s">
-        <v>203</v>
-      </c>
-      <c r="C157" s="139" t="s">
-        <v>204</v>
-      </c>
-      <c r="D157" s="138" t="s">
-        <v>205</v>
-      </c>
-      <c r="E157" s="139" t="s">
-        <v>213</v>
-      </c>
-      <c r="F157" s="138" t="s">
-        <v>209</v>
-      </c>
-      <c r="G157" s="152" t="s">
-        <v>206</v>
-      </c>
-      <c r="H157" s="153"/>
-      <c r="I157" s="138" t="s">
-        <v>207</v>
-      </c>
-      <c r="J157" s="140" t="s">
-        <v>208</v>
-      </c>
-      <c r="K157" s="78"/>
-      <c r="L157" s="78"/>
-    </row>
-    <row r="158" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="30" t="s">
-        <v>414</v>
-      </c>
-      <c r="B158" s="37">
-        <v>1</v>
-      </c>
-      <c r="C158" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="D158" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E158" s="33"/>
-      <c r="F158" s="32" t="s">
-        <v>415</v>
-      </c>
-      <c r="G158" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="H158" s="33"/>
-      <c r="I158" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="J158" s="31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="159" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="34" t="s">
-        <v>419</v>
-      </c>
-      <c r="B159" s="39">
-        <v>2</v>
-      </c>
-      <c r="C159" s="40" t="s">
-        <v>417</v>
-      </c>
-      <c r="D159" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E159" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="F159" s="36" t="s">
-        <v>415</v>
-      </c>
-      <c r="G159" s="71" t="s">
-        <v>418</v>
-      </c>
-      <c r="H159" s="71"/>
-      <c r="I159" s="35" t="s">
-        <v>368</v>
-      </c>
-      <c r="J159" s="35" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="160" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="34" t="s">
-        <v>425</v>
-      </c>
-      <c r="B160" s="39">
-        <v>3</v>
-      </c>
-      <c r="C160" s="40" t="s">
-        <v>422</v>
-      </c>
-      <c r="D160" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E160" s="71" t="s">
-        <v>423</v>
-      </c>
-      <c r="F160" s="36" t="s">
-        <v>415</v>
-      </c>
-      <c r="G160" s="71" t="s">
-        <v>424</v>
-      </c>
-      <c r="H160" s="71"/>
-      <c r="I160" s="35" t="s">
-        <v>446</v>
-      </c>
-      <c r="J160" s="35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="161" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="34" t="s">
-        <v>428</v>
-      </c>
-      <c r="B161" s="39">
-        <v>4</v>
-      </c>
-      <c r="C161" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="D161" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E161" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="F161" s="36" t="s">
-        <v>415</v>
-      </c>
-      <c r="G161" s="71" t="s">
-        <v>183</v>
-      </c>
-      <c r="H161" s="71"/>
-      <c r="I161" s="35" t="s">
-        <v>445</v>
-      </c>
-      <c r="J161" s="35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="162" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="34" t="s">
-        <v>430</v>
-      </c>
-      <c r="B162" s="39">
-        <v>5</v>
-      </c>
-      <c r="C162" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="D162" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E162" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="F162" s="36" t="s">
-        <v>415</v>
-      </c>
-      <c r="G162" s="71" t="s">
-        <v>179</v>
-      </c>
-      <c r="H162" s="71"/>
-      <c r="I162" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="J162" s="35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="163" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="34" t="s">
-        <v>435</v>
-      </c>
-      <c r="B163" s="39">
-        <v>6</v>
-      </c>
-      <c r="C163" s="40" t="s">
-        <v>432</v>
-      </c>
-      <c r="D163" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E163" s="71" t="s">
-        <v>212</v>
-      </c>
-      <c r="F163" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G163" s="71" t="s">
-        <v>433</v>
-      </c>
-      <c r="H163" s="71"/>
-      <c r="I163" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="J163" s="35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="164" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="34" t="s">
-        <v>440</v>
-      </c>
-      <c r="B164" s="39">
-        <v>7</v>
-      </c>
-      <c r="C164" s="40" t="s">
-        <v>437</v>
-      </c>
-      <c r="D164" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E164" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="F164" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G164" s="71" t="s">
-        <v>438</v>
-      </c>
-      <c r="H164" s="71"/>
-      <c r="I164" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="J164" s="35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="165" spans="1:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="34" t="s">
-        <v>442</v>
-      </c>
-      <c r="B165" s="39">
-        <v>8</v>
-      </c>
-      <c r="C165" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="D165" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E165" s="71" t="s">
-        <v>202</v>
-      </c>
-      <c r="F165" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="G165" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="H165" s="71"/>
-      <c r="I165" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="J165" s="35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="166" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="55">
-        <v>1</v>
-      </c>
-      <c r="B166" s="121" t="s">
-        <v>191</v>
-      </c>
-      <c r="C166" s="56"/>
-      <c r="D166" s="56"/>
-      <c r="E166" s="56"/>
-      <c r="F166" s="57"/>
-      <c r="G166" s="56" t="s">
-        <v>416</v>
-      </c>
-      <c r="H166" s="33"/>
-      <c r="I166" s="58"/>
-      <c r="J166" s="59"/>
-    </row>
-    <row r="167" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="27">
-        <v>2</v>
-      </c>
-      <c r="B167" s="63" t="s">
-        <v>420</v>
-      </c>
-      <c r="C167" s="64"/>
-      <c r="D167" s="64"/>
-      <c r="E167" s="64"/>
-      <c r="F167" s="65"/>
-      <c r="G167" s="64" t="s">
-        <v>421</v>
-      </c>
-      <c r="H167" s="66"/>
-      <c r="I167" s="67"/>
-      <c r="J167" s="68"/>
-    </row>
-    <row r="168" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="27">
-        <v>3</v>
-      </c>
-      <c r="B168" s="64" t="s">
-        <v>426</v>
-      </c>
-      <c r="C168" s="46"/>
-      <c r="D168" s="46"/>
-      <c r="E168" s="46"/>
-      <c r="F168" s="48"/>
-      <c r="G168" s="46" t="s">
-        <v>427</v>
-      </c>
-      <c r="H168" s="41"/>
-      <c r="I168" s="42"/>
-      <c r="J168" s="43"/>
-    </row>
-    <row r="169" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="27">
-        <v>4</v>
-      </c>
-      <c r="B169" s="122" t="s">
-        <v>190</v>
-      </c>
-      <c r="C169" s="52"/>
-      <c r="D169" s="52"/>
-      <c r="E169" s="52"/>
-      <c r="F169" s="54"/>
-      <c r="G169" s="52" t="s">
-        <v>429</v>
-      </c>
-      <c r="H169" s="74"/>
-      <c r="I169" s="75"/>
-      <c r="J169" s="76"/>
-    </row>
-    <row r="170" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="27">
-        <v>5</v>
-      </c>
-      <c r="B170" s="123" t="s">
-        <v>188</v>
-      </c>
-      <c r="C170" s="52"/>
-      <c r="D170" s="52"/>
-      <c r="E170" s="52"/>
-      <c r="F170" s="54"/>
-      <c r="G170" s="52" t="s">
-        <v>431</v>
-      </c>
-      <c r="H170" s="74"/>
-      <c r="I170" s="75"/>
-      <c r="J170" s="76"/>
-    </row>
-    <row r="171" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="27">
-        <v>6</v>
-      </c>
-      <c r="B171" s="123" t="s">
-        <v>434</v>
-      </c>
-      <c r="C171" s="52"/>
-      <c r="D171" s="52"/>
-      <c r="E171" s="52"/>
-      <c r="F171" s="54"/>
-      <c r="G171" s="52" t="s">
-        <v>436</v>
-      </c>
-      <c r="H171" s="25"/>
-      <c r="I171" s="26"/>
-      <c r="J171" s="44"/>
-    </row>
-    <row r="172" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="27">
-        <v>7</v>
-      </c>
-      <c r="B172" s="124" t="s">
-        <v>439</v>
-      </c>
-      <c r="C172" s="28"/>
-      <c r="D172" s="28"/>
-      <c r="E172" s="28"/>
-      <c r="F172" s="49"/>
-      <c r="G172" s="28" t="s">
-        <v>441</v>
-      </c>
-      <c r="H172" s="25"/>
-      <c r="I172" s="26"/>
-      <c r="J172" s="44"/>
-    </row>
-    <row r="173" spans="1:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="29">
-        <v>8</v>
-      </c>
-      <c r="B173" s="125" t="s">
-        <v>146</v>
-      </c>
-      <c r="C173" s="126"/>
-      <c r="D173" s="126"/>
-      <c r="E173" s="126"/>
-      <c r="F173" s="127"/>
-      <c r="G173" s="126" t="s">
-        <v>443</v>
-      </c>
-      <c r="H173" s="128"/>
-      <c r="I173" s="129"/>
-      <c r="J173" s="130"/>
-    </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A174" s="131"/>
-      <c r="B174" s="46"/>
-      <c r="C174" s="46"/>
-      <c r="D174" s="46"/>
-      <c r="E174" s="46"/>
-      <c r="F174" s="46"/>
-      <c r="G174" s="46"/>
-      <c r="H174" s="41"/>
-      <c r="I174" s="42"/>
-      <c r="J174" s="42"/>
-    </row>
-    <row r="175" spans="1:20" s="5" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A175" s="154" t="s">
-        <v>444</v>
-      </c>
-      <c r="B175" s="154"/>
-      <c r="C175" s="154"/>
-      <c r="D175" s="154"/>
-      <c r="E175" s="154"/>
-      <c r="F175" s="154"/>
-      <c r="G175" s="154"/>
-      <c r="H175" s="154"/>
-      <c r="I175" s="154"/>
-      <c r="J175" s="154"/>
-    </row>
-    <row r="176" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="155" t="s">
-        <v>478</v>
-      </c>
-      <c r="B176" s="155"/>
-      <c r="C176" s="155"/>
-      <c r="D176" s="155"/>
-      <c r="E176" s="155"/>
-      <c r="F176" s="155"/>
-      <c r="G176" s="155"/>
-      <c r="H176" s="155"/>
-      <c r="I176" s="155"/>
-      <c r="J176" s="155"/>
-      <c r="K176" s="77"/>
-      <c r="L176" s="77"/>
-      <c r="M176" s="77"/>
-      <c r="N176" s="77"/>
-      <c r="O176" s="77"/>
-      <c r="P176" s="77"/>
-      <c r="Q176" s="77"/>
-      <c r="R176" s="77"/>
-      <c r="S176" s="77"/>
-      <c r="T176" s="77"/>
-    </row>
-    <row r="177" spans="1:12" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A177" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="B177" s="20"/>
-      <c r="C177" s="20"/>
-      <c r="D177" s="20"/>
-      <c r="E177" s="20"/>
-      <c r="F177" s="20"/>
-      <c r="G177" s="20"/>
-      <c r="H177" s="22"/>
-      <c r="I177" s="22"/>
-      <c r="J177" s="22"/>
-    </row>
-    <row r="178" spans="1:12" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A178" s="53" t="s">
-        <v>154</v>
-      </c>
-      <c r="B178" s="20"/>
-      <c r="C178" s="20"/>
-      <c r="D178" s="20"/>
-      <c r="E178" s="20"/>
-      <c r="F178" s="20"/>
-      <c r="G178" s="20"/>
-      <c r="H178" s="22"/>
-      <c r="I178" s="22"/>
-      <c r="J178" s="22"/>
-    </row>
-    <row r="179" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="B179" s="17"/>
-      <c r="C179" s="17"/>
-      <c r="D179" s="17"/>
-      <c r="E179" s="17"/>
-      <c r="F179" s="17"/>
-      <c r="H179" s="21"/>
-      <c r="I179" s="157" t="s">
-        <v>156</v>
-      </c>
-      <c r="J179" s="157"/>
-      <c r="K179" s="79"/>
-      <c r="L179" s="79"/>
-    </row>
-    <row r="180" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B180" s="17"/>
-      <c r="C180" s="17"/>
-      <c r="D180" s="17"/>
-      <c r="E180" s="17"/>
-      <c r="F180" s="17"/>
-      <c r="H180" s="21"/>
-      <c r="I180" s="151" t="s">
-        <v>158</v>
-      </c>
-      <c r="J180" s="151"/>
-      <c r="K180" s="78"/>
-      <c r="L180" s="78"/>
-    </row>
-    <row r="181" spans="1:12" s="19" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="137" t="s">
-        <v>210</v>
-      </c>
-      <c r="B181" s="138" t="s">
-        <v>203</v>
-      </c>
-      <c r="C181" s="139" t="s">
-        <v>204</v>
-      </c>
-      <c r="D181" s="138" t="s">
-        <v>205</v>
-      </c>
-      <c r="E181" s="139" t="s">
-        <v>213</v>
-      </c>
-      <c r="F181" s="138" t="s">
-        <v>209</v>
-      </c>
-      <c r="G181" s="152" t="s">
-        <v>206</v>
-      </c>
-      <c r="H181" s="153"/>
-      <c r="I181" s="138" t="s">
-        <v>207</v>
-      </c>
-      <c r="J181" s="140" t="s">
-        <v>208</v>
-      </c>
-      <c r="K181" s="78"/>
-      <c r="L181" s="78"/>
-    </row>
-    <row r="182" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="30" t="s">
-        <v>449</v>
-      </c>
-      <c r="B182" s="37">
-        <v>1</v>
-      </c>
-      <c r="C182" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="D182" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E182" s="50" t="s">
-        <v>452</v>
-      </c>
-      <c r="F182" s="32" t="s">
-        <v>411</v>
-      </c>
-      <c r="G182" s="33" t="s">
-        <v>448</v>
-      </c>
-      <c r="H182" s="33"/>
-      <c r="I182" s="31" t="s">
-        <v>408</v>
-      </c>
-      <c r="J182" s="31" t="s">
-        <v>409</v>
-      </c>
-      <c r="K182" s="69"/>
-    </row>
-    <row r="183" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="34" t="s">
-        <v>453</v>
-      </c>
-      <c r="B183" s="39">
-        <v>2</v>
-      </c>
-      <c r="C183" s="40" t="s">
-        <v>174</v>
-      </c>
-      <c r="D183" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E183" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="F183" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="G183" s="71" t="s">
-        <v>175</v>
-      </c>
-      <c r="H183" s="71"/>
-      <c r="I183" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="J183" s="35" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="34" t="s">
-        <v>455</v>
-      </c>
-      <c r="B184" s="39">
-        <v>3</v>
-      </c>
-      <c r="C184" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="D184" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E184" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="F184" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="G184" s="71" t="s">
-        <v>163</v>
-      </c>
-      <c r="H184" s="71"/>
-      <c r="I184" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="J184" s="35" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="34" t="s">
-        <v>461</v>
-      </c>
-      <c r="B185" s="39">
-        <v>4</v>
-      </c>
-      <c r="C185" s="40" t="s">
-        <v>457</v>
-      </c>
-      <c r="D185" s="35" t="s">
-        <v>458</v>
-      </c>
-      <c r="E185" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="F185" s="36" t="s">
-        <v>526</v>
-      </c>
-      <c r="G185" s="71" t="s">
-        <v>459</v>
-      </c>
-      <c r="H185" s="71"/>
-      <c r="I185" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="J185" s="35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="34" t="s">
-        <v>466</v>
-      </c>
-      <c r="B186" s="39">
-        <v>5</v>
-      </c>
-      <c r="C186" s="40" t="s">
-        <v>463</v>
-      </c>
-      <c r="D186" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E186" s="71"/>
-      <c r="F186" s="36" t="s">
-        <v>464</v>
-      </c>
-      <c r="G186" s="71" t="s">
-        <v>465</v>
-      </c>
-      <c r="H186" s="71"/>
-      <c r="I186" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="J186" s="35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="34" t="s">
-        <v>472</v>
-      </c>
-      <c r="B187" s="39">
-        <v>6</v>
-      </c>
-      <c r="C187" s="40" t="s">
-        <v>469</v>
-      </c>
-      <c r="D187" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E187" s="71" t="s">
-        <v>192</v>
-      </c>
-      <c r="F187" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="G187" s="71" t="s">
-        <v>470</v>
-      </c>
-      <c r="H187" s="71"/>
-      <c r="I187" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="J187" s="35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="34" t="s">
-        <v>474</v>
-      </c>
-      <c r="B188" s="39">
-        <v>7</v>
-      </c>
-      <c r="C188" s="40" t="s">
-        <v>159</v>
-      </c>
-      <c r="D188" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E188" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="F188" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="G188" s="71" t="s">
-        <v>160</v>
-      </c>
-      <c r="H188" s="71"/>
-      <c r="I188" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="J188" s="35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="87" t="s">
-        <v>476</v>
-      </c>
-      <c r="B189" s="88">
-        <v>8</v>
-      </c>
-      <c r="C189" s="89" t="s">
-        <v>166</v>
-      </c>
-      <c r="D189" s="90" t="s">
-        <v>9</v>
-      </c>
-      <c r="E189" s="84" t="s">
-        <v>212</v>
-      </c>
-      <c r="F189" s="91" t="s">
-        <v>167</v>
-      </c>
-      <c r="G189" s="84" t="s">
-        <v>168</v>
-      </c>
-      <c r="H189" s="84"/>
-      <c r="I189" s="90" t="s">
-        <v>169</v>
-      </c>
-      <c r="J189" s="90" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="132">
-        <v>1</v>
-      </c>
-      <c r="B190" s="123" t="s">
-        <v>450</v>
-      </c>
-      <c r="C190" s="45"/>
-      <c r="D190" s="45"/>
-      <c r="E190" s="45"/>
-      <c r="F190" s="47"/>
-      <c r="G190" s="45" t="s">
-        <v>451</v>
-      </c>
-      <c r="H190" s="41"/>
-      <c r="I190" s="42"/>
-      <c r="J190" s="43"/>
-    </row>
-    <row r="191" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="27">
-        <v>2</v>
-      </c>
-      <c r="B191" s="63" t="s">
-        <v>187</v>
-      </c>
-      <c r="C191" s="64"/>
-      <c r="D191" s="64"/>
-      <c r="E191" s="64"/>
-      <c r="F191" s="65"/>
-      <c r="G191" s="64" t="s">
-        <v>454</v>
-      </c>
-      <c r="H191" s="66"/>
-      <c r="I191" s="67"/>
-      <c r="J191" s="68"/>
-    </row>
-    <row r="192" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="27">
-        <v>3</v>
-      </c>
-      <c r="B192" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="C192" s="46"/>
-      <c r="D192" s="46"/>
-      <c r="E192" s="46"/>
-      <c r="F192" s="48"/>
-      <c r="G192" s="46" t="s">
-        <v>456</v>
-      </c>
-      <c r="H192" s="41"/>
-      <c r="I192" s="42"/>
-      <c r="J192" s="43"/>
-    </row>
-    <row r="193" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="27">
-        <v>4</v>
-      </c>
-      <c r="B193" s="51" t="s">
-        <v>460</v>
-      </c>
-      <c r="C193" s="52"/>
-      <c r="D193" s="52"/>
-      <c r="E193" s="52"/>
-      <c r="F193" s="54"/>
-      <c r="G193" s="52" t="s">
-        <v>462</v>
-      </c>
-      <c r="H193" s="74"/>
-      <c r="I193" s="75"/>
-      <c r="J193" s="76"/>
-    </row>
-    <row r="194" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="27">
-        <v>5</v>
-      </c>
-      <c r="B194" s="124" t="s">
-        <v>467</v>
-      </c>
-      <c r="C194" s="28"/>
-      <c r="D194" s="28"/>
-      <c r="E194" s="28"/>
-      <c r="F194" s="49"/>
-      <c r="G194" s="28" t="s">
-        <v>468</v>
-      </c>
-      <c r="H194" s="25"/>
-      <c r="I194" s="26"/>
-      <c r="J194" s="44"/>
-    </row>
-    <row r="195" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="27">
-        <v>6</v>
-      </c>
-      <c r="B195" s="124" t="s">
-        <v>471</v>
-      </c>
-      <c r="C195" s="28"/>
-      <c r="D195" s="28"/>
-      <c r="E195" s="28"/>
-      <c r="F195" s="49"/>
-      <c r="G195" s="28" t="s">
-        <v>473</v>
-      </c>
-      <c r="H195" s="25"/>
-      <c r="I195" s="26"/>
-      <c r="J195" s="44"/>
-    </row>
-    <row r="196" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="27">
-        <v>7</v>
-      </c>
-      <c r="B196" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="C196" s="28"/>
-      <c r="D196" s="28"/>
-      <c r="E196" s="28"/>
-      <c r="F196" s="49"/>
-      <c r="G196" s="28" t="s">
-        <v>475</v>
-      </c>
-      <c r="H196" s="25"/>
-      <c r="I196" s="26"/>
-      <c r="J196" s="44"/>
-    </row>
-    <row r="197" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="29">
-        <v>8</v>
-      </c>
-      <c r="B197" s="125" t="s">
-        <v>211</v>
-      </c>
-      <c r="C197" s="126"/>
-      <c r="D197" s="126"/>
-      <c r="E197" s="126"/>
-      <c r="F197" s="127"/>
-      <c r="G197" s="126" t="s">
-        <v>477</v>
-      </c>
-      <c r="H197" s="128"/>
-      <c r="I197" s="129"/>
-      <c r="J197" s="130"/>
-    </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A198" s="131"/>
-      <c r="B198" s="46"/>
-      <c r="C198" s="46"/>
-      <c r="D198" s="46"/>
-      <c r="E198" s="46"/>
-      <c r="F198" s="46"/>
-      <c r="G198" s="46"/>
-      <c r="H198" s="41"/>
-      <c r="I198" s="42"/>
-      <c r="J198" s="42"/>
-    </row>
-    <row r="199" spans="1:20" s="5" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A199" s="154" t="s">
-        <v>525</v>
-      </c>
-      <c r="B199" s="154"/>
-      <c r="C199" s="154"/>
-      <c r="D199" s="154"/>
-      <c r="E199" s="154"/>
-      <c r="F199" s="154"/>
-      <c r="G199" s="154"/>
-      <c r="H199" s="154"/>
-      <c r="I199" s="154"/>
-      <c r="J199" s="154"/>
-    </row>
-    <row r="200" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="155" t="s">
-        <v>21</v>
-      </c>
-      <c r="B200" s="155"/>
-      <c r="C200" s="155"/>
-      <c r="D200" s="155"/>
-      <c r="E200" s="155"/>
-      <c r="F200" s="155"/>
-      <c r="G200" s="155"/>
-      <c r="H200" s="155"/>
-      <c r="I200" s="155"/>
-      <c r="J200" s="155"/>
-      <c r="K200" s="77"/>
-      <c r="L200" s="77"/>
-      <c r="M200" s="77"/>
-      <c r="N200" s="77"/>
-      <c r="O200" s="77"/>
-      <c r="P200" s="77"/>
-      <c r="Q200" s="77"/>
-      <c r="R200" s="77"/>
-      <c r="S200" s="77"/>
-      <c r="T200" s="77"/>
-    </row>
-    <row r="201" spans="1:20" s="150" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="53" t="s">
-        <v>517</v>
-      </c>
-      <c r="B201" s="20"/>
-      <c r="C201" s="20"/>
-      <c r="D201" s="20"/>
-      <c r="E201" s="20"/>
-      <c r="F201" s="20"/>
-      <c r="G201" s="20"/>
-      <c r="H201" s="22"/>
-      <c r="I201" s="22"/>
-      <c r="J201" s="22"/>
-    </row>
-    <row r="202" spans="1:20" s="150" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="53" t="s">
-        <v>518</v>
-      </c>
-      <c r="B202" s="20"/>
-      <c r="C202" s="20"/>
-      <c r="D202" s="20"/>
-      <c r="E202" s="20"/>
-      <c r="F202" s="20"/>
-      <c r="G202" s="20"/>
-      <c r="H202" s="22"/>
-      <c r="I202" s="22"/>
-      <c r="J202" s="22"/>
-    </row>
-    <row r="203" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B203" s="17"/>
-      <c r="C203" s="17"/>
-      <c r="D203" s="17"/>
-      <c r="E203" s="17"/>
-      <c r="F203" s="17"/>
-      <c r="H203" s="21"/>
-      <c r="I203" s="133"/>
-      <c r="J203" s="133"/>
-      <c r="K203" s="79"/>
-      <c r="L203" s="79"/>
-    </row>
-    <row r="204" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="B204" s="17"/>
-      <c r="C204" s="17"/>
-      <c r="D204" s="17"/>
-      <c r="E204" s="17"/>
-      <c r="F204" s="17"/>
-      <c r="H204" s="21"/>
-      <c r="I204" s="134"/>
-      <c r="J204" s="134"/>
-      <c r="K204" s="78"/>
-      <c r="L204" s="78"/>
-    </row>
-    <row r="205" spans="1:20" s="19" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="137" t="s">
-        <v>210</v>
-      </c>
-      <c r="B205" s="138" t="s">
-        <v>203</v>
-      </c>
-      <c r="C205" s="139" t="s">
-        <v>204</v>
-      </c>
-      <c r="D205" s="138" t="s">
-        <v>205</v>
-      </c>
-      <c r="E205" s="139" t="s">
-        <v>213</v>
-      </c>
-      <c r="F205" s="138" t="s">
-        <v>209</v>
-      </c>
-      <c r="G205" s="152" t="s">
-        <v>206</v>
-      </c>
-      <c r="H205" s="153"/>
-      <c r="I205" s="138" t="s">
-        <v>207</v>
-      </c>
-      <c r="J205" s="140" t="s">
-        <v>208</v>
-      </c>
-      <c r="K205" s="78"/>
-      <c r="L205" s="78"/>
-    </row>
-    <row r="206" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="30" t="s">
-        <v>479</v>
-      </c>
-      <c r="B206" s="37">
-        <v>1</v>
-      </c>
-      <c r="C206" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="D206" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E206" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="F206" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="G206" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="H206" s="33"/>
-      <c r="I206" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="J206" s="31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="207" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="B207" s="39">
-        <v>2</v>
-      </c>
-      <c r="C207" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="D207" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E207" s="71"/>
-      <c r="F207" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="G207" s="71" t="s">
-        <v>134</v>
-      </c>
-      <c r="H207" s="71"/>
-      <c r="I207" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="J207" s="35" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="208" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="34" t="s">
-        <v>481</v>
-      </c>
-      <c r="B208" s="39">
-        <v>3</v>
-      </c>
-      <c r="C208" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="D208" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E208" s="71" t="s">
-        <v>144</v>
-      </c>
-      <c r="F208" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="G208" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="H208" s="71"/>
-      <c r="I208" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="J208" s="35" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="34" t="s">
-        <v>483</v>
-      </c>
-      <c r="B209" s="39">
-        <v>4</v>
-      </c>
-      <c r="C209" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="D209" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E209" s="71" t="s">
-        <v>198</v>
-      </c>
-      <c r="F209" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="G209" s="71" t="s">
-        <v>117</v>
-      </c>
-      <c r="H209" s="71"/>
-      <c r="I209" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="J209" s="35" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="34" t="s">
-        <v>485</v>
-      </c>
-      <c r="B210" s="39">
-        <v>5</v>
-      </c>
-      <c r="C210" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="D210" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E210" s="71" t="s">
-        <v>527</v>
-      </c>
-      <c r="F210" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="G210" s="71" t="s">
-        <v>139</v>
-      </c>
-      <c r="H210" s="71"/>
-      <c r="I210" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="J210" s="35" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="34" t="s">
-        <v>490</v>
-      </c>
-      <c r="B211" s="39">
-        <v>6</v>
-      </c>
-      <c r="C211" s="40" t="s">
-        <v>487</v>
-      </c>
-      <c r="D211" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E211" s="71"/>
-      <c r="F211" s="36" t="s">
-        <v>488</v>
-      </c>
-      <c r="G211" s="71" t="s">
-        <v>489</v>
-      </c>
-      <c r="H211" s="71"/>
-      <c r="I211" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="J211" s="35" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="34" t="s">
-        <v>497</v>
-      </c>
-      <c r="B212" s="39">
-        <v>7</v>
-      </c>
-      <c r="C212" s="40" t="s">
-        <v>493</v>
-      </c>
-      <c r="D212" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E212" s="71" t="s">
-        <v>201</v>
-      </c>
-      <c r="F212" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="G212" s="71" t="s">
-        <v>494</v>
-      </c>
-      <c r="H212" s="71"/>
-      <c r="I212" s="35" t="s">
-        <v>495</v>
-      </c>
-      <c r="J212" s="35" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="34" t="s">
-        <v>502</v>
-      </c>
-      <c r="B213" s="39">
-        <v>8</v>
-      </c>
-      <c r="C213" s="40" t="s">
-        <v>500</v>
-      </c>
-      <c r="D213" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E213" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="F213" s="36" t="s">
-        <v>503</v>
-      </c>
-      <c r="G213" s="71" t="s">
-        <v>501</v>
-      </c>
-      <c r="H213" s="71"/>
-      <c r="I213" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="J213" s="35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="34" t="s">
-        <v>508</v>
-      </c>
-      <c r="B214" s="39">
-        <v>9</v>
-      </c>
-      <c r="C214" s="40" t="s">
-        <v>506</v>
-      </c>
-      <c r="D214" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E214" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="F214" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="G214" s="71" t="s">
-        <v>507</v>
-      </c>
-      <c r="H214" s="71"/>
-      <c r="I214" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="J214" s="35" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="87" t="s">
+      <c r="B225" s="131" t="s">
         <v>514</v>
       </c>
-      <c r="B215" s="88">
-        <v>10</v>
-      </c>
-      <c r="C215" s="89" t="s">
-        <v>511</v>
-      </c>
-      <c r="D215" s="90" t="s">
-        <v>16</v>
-      </c>
-      <c r="E215" s="84" t="s">
-        <v>199</v>
-      </c>
-      <c r="F215" s="91" t="s">
-        <v>513</v>
-      </c>
-      <c r="G215" s="84" t="s">
-        <v>512</v>
-      </c>
-      <c r="H215" s="84"/>
-      <c r="I215" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="J215" s="90" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="132">
-        <v>1</v>
-      </c>
-      <c r="B216" s="123" t="s">
-        <v>147</v>
-      </c>
-      <c r="C216" s="45"/>
-      <c r="D216" s="45"/>
-      <c r="E216" s="45"/>
-      <c r="F216" s="47"/>
-      <c r="G216" s="45" t="s">
-        <v>480</v>
-      </c>
-      <c r="H216" s="41"/>
-      <c r="I216" s="42"/>
-      <c r="J216" s="43"/>
-    </row>
-    <row r="217" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="135">
-        <v>2</v>
-      </c>
-      <c r="B217" s="63" t="s">
-        <v>149</v>
-      </c>
-      <c r="C217" s="64"/>
-      <c r="D217" s="64"/>
-      <c r="E217" s="64"/>
-      <c r="F217" s="65"/>
-      <c r="G217" s="64" t="s">
-        <v>150</v>
-      </c>
-      <c r="H217" s="66"/>
-      <c r="I217" s="67"/>
-      <c r="J217" s="68"/>
-    </row>
-    <row r="218" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="27">
-        <v>3</v>
-      </c>
-      <c r="B218" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="C218" s="52"/>
-      <c r="D218" s="52"/>
-      <c r="E218" s="52"/>
-      <c r="F218" s="54"/>
-      <c r="G218" s="52" t="s">
-        <v>482</v>
-      </c>
-      <c r="H218" s="74"/>
-      <c r="I218" s="75"/>
-      <c r="J218" s="76"/>
-    </row>
-    <row r="219" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="27">
-        <v>4</v>
-      </c>
-      <c r="B219" s="124" t="s">
-        <v>214</v>
-      </c>
-      <c r="C219" s="28"/>
-      <c r="D219" s="28"/>
-      <c r="E219" s="28"/>
-      <c r="F219" s="49"/>
-      <c r="G219" s="28" t="s">
-        <v>484</v>
-      </c>
-      <c r="H219" s="25"/>
-      <c r="I219" s="26"/>
-      <c r="J219" s="44"/>
-    </row>
-    <row r="220" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="27">
-        <v>5</v>
-      </c>
-      <c r="B220" s="124" t="s">
-        <v>151</v>
-      </c>
-      <c r="C220" s="28"/>
-      <c r="D220" s="28"/>
-      <c r="E220" s="28"/>
-      <c r="F220" s="49"/>
-      <c r="G220" s="51" t="s">
-        <v>486</v>
-      </c>
-      <c r="H220" s="25"/>
-      <c r="I220" s="26"/>
-      <c r="J220" s="44"/>
-    </row>
-    <row r="221" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="27">
-        <v>6</v>
-      </c>
-      <c r="B221" s="124" t="s">
-        <v>491</v>
-      </c>
-      <c r="C221" s="28"/>
-      <c r="D221" s="28"/>
-      <c r="E221" s="28"/>
-      <c r="F221" s="49"/>
-      <c r="G221" s="51" t="s">
-        <v>492</v>
-      </c>
-      <c r="H221" s="25"/>
-      <c r="I221" s="26"/>
-      <c r="J221" s="44"/>
-    </row>
-    <row r="222" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="27">
-        <v>7</v>
-      </c>
-      <c r="B222" s="124" t="s">
-        <v>498</v>
-      </c>
-      <c r="C222" s="28"/>
-      <c r="D222" s="28"/>
-      <c r="E222" s="28"/>
-      <c r="F222" s="49"/>
-      <c r="G222" s="28" t="s">
-        <v>499</v>
-      </c>
-      <c r="H222" s="25"/>
-      <c r="I222" s="26"/>
-      <c r="J222" s="44"/>
-    </row>
-    <row r="223" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="27">
-        <v>8</v>
-      </c>
-      <c r="B223" s="124" t="s">
-        <v>504</v>
-      </c>
-      <c r="C223" s="28"/>
-      <c r="D223" s="28"/>
-      <c r="E223" s="28"/>
-      <c r="F223" s="49"/>
-      <c r="G223" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="H223" s="25"/>
-      <c r="I223" s="26"/>
-      <c r="J223" s="44"/>
-    </row>
-    <row r="224" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="27">
-        <v>9</v>
-      </c>
-      <c r="B224" s="124" t="s">
-        <v>509</v>
-      </c>
-      <c r="C224" s="28"/>
-      <c r="D224" s="28"/>
-      <c r="E224" s="28"/>
-      <c r="F224" s="49"/>
-      <c r="G224" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H224" s="25"/>
-      <c r="I224" s="26"/>
-      <c r="J224" s="44"/>
-    </row>
-    <row r="225" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="29">
-        <v>10</v>
-      </c>
-      <c r="B225" s="136" t="s">
+      <c r="C225" s="121"/>
+      <c r="D225" s="121"/>
+      <c r="E225" s="121"/>
+      <c r="F225" s="122"/>
+      <c r="G225" s="121" t="s">
         <v>515</v>
       </c>
-      <c r="C225" s="126"/>
-      <c r="D225" s="126"/>
-      <c r="E225" s="126"/>
-      <c r="F225" s="127"/>
-      <c r="G225" s="126" t="s">
-        <v>516</v>
-      </c>
-      <c r="H225" s="128"/>
-      <c r="I225" s="129"/>
-      <c r="J225" s="130"/>
+      <c r="H225" s="123"/>
+      <c r="I225" s="124"/>
+      <c r="J225" s="125"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="53">
+    <mergeCell ref="I180:J180"/>
+    <mergeCell ref="G205:H205"/>
+    <mergeCell ref="A199:J199"/>
+    <mergeCell ref="A200:J200"/>
+    <mergeCell ref="G181:H181"/>
+    <mergeCell ref="A60:J60"/>
+    <mergeCell ref="A175:J175"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="A57:J57"/>
+    <mergeCell ref="A130:J130"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="I134:J134"/>
+    <mergeCell ref="A129:J129"/>
+    <mergeCell ref="I108:J108"/>
+    <mergeCell ref="I107:J107"/>
+    <mergeCell ref="A176:J176"/>
+    <mergeCell ref="I179:J179"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="A151:J151"/>
+    <mergeCell ref="A152:J152"/>
+    <mergeCell ref="I155:J155"/>
+    <mergeCell ref="I156:J156"/>
+    <mergeCell ref="I133:J133"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="F5:H5"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="A105:J105"/>
@@ -10912,49 +10909,12 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A16:J16"/>
     <mergeCell ref="I19:J19"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F4:H4"/>
     <mergeCell ref="I82:J82"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="F5:H5"/>
     <mergeCell ref="I61:J61"/>
     <mergeCell ref="I62:J62"/>
     <mergeCell ref="A79:J79"/>
     <mergeCell ref="A80:J80"/>
-    <mergeCell ref="I108:J108"/>
-    <mergeCell ref="I107:J107"/>
-    <mergeCell ref="A176:J176"/>
-    <mergeCell ref="I179:J179"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="A151:J151"/>
-    <mergeCell ref="A152:J152"/>
-    <mergeCell ref="I155:J155"/>
-    <mergeCell ref="I156:J156"/>
-    <mergeCell ref="I133:J133"/>
     <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A60:J60"/>
-    <mergeCell ref="A175:J175"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="A57:J57"/>
-    <mergeCell ref="A130:J130"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="I180:J180"/>
-    <mergeCell ref="G205:H205"/>
-    <mergeCell ref="A199:J199"/>
-    <mergeCell ref="A200:J200"/>
-    <mergeCell ref="G181:H181"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="I134:J134"/>
-    <mergeCell ref="A129:J129"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.59055118110236227" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10971,7 +10931,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="16" type="noConversion"/>
